--- a/data_clean/Aker 11.12.2020.xlsx
+++ b/data_clean/Aker 11.12.2020.xlsx
@@ -1065,7 +1065,7 @@
         <v>1.010007299272063</v>
       </c>
       <c r="K2">
-        <v>48.88620287475422</v>
+        <v>-0.0111379712524579</v>
       </c>
       <c r="L2">
         <v>-0.004155935280801967</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1136,7 +1136,7 @@
         <v>1.010007299272063</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
         <v>0.03044569054206174</v>
@@ -1166,13 +1166,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1207,7 +1207,7 @@
         <v>0.4749999999999999</v>
       </c>
       <c r="K4">
-        <v>32.20338983050847</v>
+        <v>-0.1779661016949153</v>
       </c>
       <c r="L4">
         <v>-0.0002597427633889021</v>
@@ -1237,13 +1237,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.999043062200957</v>
+        <v>-0.000956937799043045</v>
       </c>
       <c r="V4">
-        <v>0.999043062200957</v>
+        <v>-0.000956937799043045</v>
       </c>
       <c r="W4">
-        <v>0.9961759082217974</v>
+        <v>-0.003824091778202643</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1278,7 +1278,7 @@
         <v>0.475</v>
       </c>
       <c r="K5">
-        <v>32.20338983050848</v>
+        <v>-0.1779661016949152</v>
       </c>
       <c r="L5">
         <v>-0.009902329255876733</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.9995210727969349</v>
+        <v>-0.0004789272030650826</v>
       </c>
       <c r="V5">
-        <v>0.9995210727969349</v>
+        <v>-0.0004789272030650826</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1349,7 +1349,7 @@
         <v>1.306024930747922</v>
       </c>
       <c r="K6">
-        <v>56.63533439442625</v>
+        <v>0.06635334394426251</v>
       </c>
       <c r="L6">
         <v>-0.007498064748038325</v>
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.000287494010542</v>
+        <v>0.0002874940105415114</v>
       </c>
       <c r="V6">
-        <v>1.000287494010542</v>
+        <v>0.0002874940105415114</v>
       </c>
       <c r="W6">
-        <v>1.002879078694818</v>
+        <v>0.002879078694817627</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1420,7 +1420,7 @@
         <v>1.597612625747193</v>
       </c>
       <c r="K7">
-        <v>61.50311289342637</v>
+        <v>0.1150311289342637</v>
       </c>
       <c r="L7">
         <v>-0.002764633613823561</v>
@@ -1450,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.000351280577378</v>
+        <v>0.000351280577377544</v>
       </c>
       <c r="V7">
-        <v>1.000351280577378</v>
+        <v>0.000351280577377544</v>
       </c>
       <c r="W7">
-        <v>1.000956937799043</v>
+        <v>0.000956937799043045</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1491,7 +1491,7 @@
         <v>1.222412239242372</v>
       </c>
       <c r="K8">
-        <v>55.00384751566597</v>
+        <v>0.05003847515665971</v>
       </c>
       <c r="L8">
         <v>0.0001785224430749938</v>
@@ -1521,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.000114012085281</v>
+        <v>0.0001140120852809456</v>
       </c>
       <c r="V8">
-        <v>1.000114012085281</v>
+        <v>0.0001140120852809456</v>
       </c>
       <c r="W8">
-        <v>0.9990439770554493</v>
+        <v>-0.0009560229445506607</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1562,7 +1562,7 @@
         <v>1.222412239242372</v>
       </c>
       <c r="K9">
-        <v>55.00384751566597</v>
+        <v>0.05003847515665971</v>
       </c>
       <c r="L9">
         <v>0.002030789510514813</v>
@@ -1592,13 +1592,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000085499316006</v>
+        <v>8.549931600554395E-05</v>
       </c>
       <c r="V9">
-        <v>1.000085499316006</v>
+        <v>8.549931600554395E-05</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1633,7 +1633,7 @@
         <v>0.969997275697233</v>
       </c>
       <c r="K10">
-        <v>49.23850848240011</v>
+        <v>-0.007614915175998938</v>
       </c>
       <c r="L10">
         <v>0.002453658634214823</v>
@@ -1663,13 +1663,13 @@
         <v>0.02083333333337123</v>
       </c>
       <c r="U10">
-        <v>0.9999601037303012</v>
+        <v>-3.989626969880256E-05</v>
       </c>
       <c r="V10">
-        <v>0.9999601037303012</v>
+        <v>-3.989626969880256E-05</v>
       </c>
       <c r="W10">
-        <v>0.999043062200957</v>
+        <v>-0.000956937799043045</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1704,7 +1704,7 @@
         <v>0.6760909561472127</v>
       </c>
       <c r="K11">
-        <v>40.33736675611721</v>
+        <v>-0.09662633243882796</v>
       </c>
       <c r="L11">
         <v>0.0009691319460698782</v>
@@ -1734,13 +1734,13 @@
         <v>-0.1124999999999545</v>
       </c>
       <c r="U11">
-        <v>0.9997765719757421</v>
+        <v>-0.000223428024257899</v>
       </c>
       <c r="V11">
-        <v>0.9997765719757421</v>
+        <v>-0.000223428024257899</v>
       </c>
       <c r="W11">
-        <v>0.9980842911877394</v>
+        <v>-0.001915708812260553</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1775,7 +1775,7 @@
         <v>0.8355630912561332</v>
       </c>
       <c r="K12">
-        <v>45.52080477301008</v>
+        <v>-0.04479195226989924</v>
       </c>
       <c r="L12">
         <v>-0.0005151062951843401</v>
@@ -1805,13 +1805,13 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0.999904223733359</v>
+        <v>-9.577626664103445E-05</v>
       </c>
       <c r="V12">
-        <v>0.999904223733359</v>
+        <v>-9.577626664103445E-05</v>
       </c>
       <c r="W12">
-        <v>1.000959692898272</v>
+        <v>0.0009596928982724684</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1846,7 +1846,7 @@
         <v>1.003428496633944</v>
       </c>
       <c r="K13">
-        <v>50.08556573493151</v>
+        <v>0.000855657349315031</v>
       </c>
       <c r="L13">
         <v>-0.001288832738377569</v>
@@ -1876,13 +1876,13 @@
         <v>0.125</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>1.000958772770853</v>
+        <v>0.0009587727708533222</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1917,7 +1917,7 @@
         <v>1.003428496633944</v>
       </c>
       <c r="K14">
-        <v>50.08556573493151</v>
+        <v>0.000855657349315031</v>
       </c>
       <c r="L14">
         <v>-0.001646372849840054</v>
@@ -1947,13 +1947,13 @@
         <v>0.0625</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1988,7 +1988,7 @@
         <v>1.375429394978124</v>
       </c>
       <c r="K15">
-        <v>57.90234800857091</v>
+        <v>0.07902348008570914</v>
       </c>
       <c r="L15">
         <v>-0.0008132594913629364</v>
@@ -2018,13 +2018,13 @@
         <v>-0.008928571428555188</v>
       </c>
       <c r="U15">
-        <v>1.000136836343733</v>
+        <v>0.000136836343732849</v>
       </c>
       <c r="V15">
-        <v>1.000136836343733</v>
+        <v>0.000136836343732849</v>
       </c>
       <c r="W15">
-        <v>1.001915708812261</v>
+        <v>0.001915708812260553</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2059,7 +2059,7 @@
         <v>1.571219341475061</v>
       </c>
       <c r="K16">
-        <v>61.10794657346041</v>
+        <v>0.1110794657346041</v>
       </c>
       <c r="L16">
         <v>0.001000144887925462</v>
@@ -2089,13 +2089,13 @@
         <v>0.02083333333337123</v>
       </c>
       <c r="U16">
-        <v>1.000182423496146</v>
+        <v>0.0001824234961462778</v>
       </c>
       <c r="V16">
-        <v>1.000182423496146</v>
+        <v>0.0001824234961462778</v>
       </c>
       <c r="W16">
-        <v>1.000956022944551</v>
+        <v>0.0009560229445506607</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2130,7 +2130,7 @@
         <v>0.7738192184399808</v>
       </c>
       <c r="K17">
-        <v>43.62446919030063</v>
+        <v>-0.0637553080969937</v>
       </c>
       <c r="L17">
         <v>0.001003912434296798</v>
@@ -2160,13 +2160,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U17">
-        <v>0.9998603574848389</v>
+        <v>-0.0001396425151610758</v>
       </c>
       <c r="V17">
-        <v>0.9998723268432813</v>
+        <v>-0.0001276731567186884</v>
       </c>
       <c r="W17">
-        <v>0.9952244508118434</v>
+        <v>-0.004775549188156591</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2201,7 +2201,7 @@
         <v>0.7738192184399809</v>
       </c>
       <c r="K18">
-        <v>43.62446919030063</v>
+        <v>-0.0637553080969937</v>
       </c>
       <c r="L18">
         <v>3.709436134124368E-05</v>
@@ -2231,13 +2231,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U18">
-        <v>0.9998767688077206</v>
+        <v>-0.000123231192279416</v>
       </c>
       <c r="V18">
-        <v>0.9997446210815297</v>
+        <v>-0.0002553789184702726</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2272,7 +2272,7 @@
         <v>0.5337180975683163</v>
       </c>
       <c r="K19">
-        <v>34.79896979859058</v>
+        <v>-0.1520103020140942</v>
       </c>
       <c r="L19">
         <v>-0.003007711687218176</v>
@@ -2302,13 +2302,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U19">
-        <v>0.9996776031200506</v>
+        <v>-0.0003223968799493937</v>
       </c>
       <c r="V19">
-        <v>0.999744555846478</v>
+        <v>-0.0002554441535219665</v>
       </c>
       <c r="W19">
-        <v>0.9961612284069098</v>
+        <v>-0.003838771593090207</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2343,7 +2343,7 @@
         <v>0.4587944028010272</v>
       </c>
       <c r="K20">
-        <v>31.45024425101285</v>
+        <v>-0.1854975574898715</v>
       </c>
       <c r="L20">
         <v>-0.007755294901506353</v>
@@ -2373,13 +2373,13 @@
         <v>-0.40625</v>
       </c>
       <c r="U20">
-        <v>0.9996105929912341</v>
+        <v>-0.0003894070087658852</v>
       </c>
       <c r="V20">
-        <v>0.9996167358671351</v>
+        <v>-0.0003832641328649355</v>
       </c>
       <c r="W20">
-        <v>0.9980732177263969</v>
+        <v>-0.0019267822736031</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2414,7 +2414,7 @@
         <v>0.4587944028010272</v>
       </c>
       <c r="K21">
-        <v>31.45024425101283</v>
+        <v>-0.1854975574898717</v>
       </c>
       <c r="L21">
         <v>-0.01308041897284527</v>
@@ -2444,13 +2444,13 @@
         <v>-0.71875</v>
       </c>
       <c r="U21">
-        <v>0.9996493971649095</v>
+        <v>-0.0003506028350904744</v>
       </c>
       <c r="V21">
-        <v>0.9994248833791297</v>
+        <v>-0.0005751166208702863</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2485,7 +2485,7 @@
         <v>0.6921140467817902</v>
       </c>
       <c r="K22">
-        <v>40.90232854565051</v>
+        <v>-0.09097671454349493</v>
       </c>
       <c r="L22">
         <v>-0.01715322287433967</v>
@@ -2515,13 +2515,13 @@
         <v>-0.84375</v>
       </c>
       <c r="U22">
-        <v>0.9998196507616902</v>
+        <v>-0.0001803492383097849</v>
       </c>
       <c r="V22">
-        <v>0.9995524296675191</v>
+        <v>-0.0004475703324808844</v>
       </c>
       <c r="W22">
-        <v>1.002895752895753</v>
+        <v>0.002895752895752945</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2556,7 +2556,7 @@
         <v>0.6921140467817902</v>
       </c>
       <c r="K23">
-        <v>40.90232854565051</v>
+        <v>-0.09097671454349493</v>
       </c>
       <c r="L23">
         <v>-0.02015077710378752</v>
@@ -2586,13 +2586,13 @@
         <v>-1.0625</v>
       </c>
       <c r="U23">
-        <v>0.9998360165727047</v>
+        <v>-0.0001639834272952889</v>
       </c>
       <c r="V23">
-        <v>0.9996161965073881</v>
+        <v>-0.0003838034926119116</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2627,7 +2627,7 @@
         <v>0.86446466098734</v>
       </c>
       <c r="K24">
-        <v>46.36530147637965</v>
+        <v>-0.0363469852362035</v>
       </c>
       <c r="L24">
         <v>-0.02149286702067096</v>
@@ -2657,13 +2657,13 @@
         <v>-1.3125</v>
       </c>
       <c r="U24">
-        <v>0.9999336557034296</v>
+        <v>-6.634429657037533E-05</v>
       </c>
       <c r="V24">
-        <v>0.9997440327638063</v>
+        <v>-0.0002559672361936993</v>
       </c>
       <c r="W24">
-        <v>1.001924927815207</v>
+        <v>0.001924927815206923</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2698,7 +2698,7 @@
         <v>0.5009394883608134</v>
       </c>
       <c r="K25">
-        <v>33.37506223571297</v>
+        <v>-0.1662493776428702</v>
       </c>
       <c r="L25">
         <v>-0.02464219559607949</v>
@@ -2728,13 +2728,13 @@
         <v>-1.5</v>
       </c>
       <c r="U25">
-        <v>0.9996194428225874</v>
+        <v>-0.0003805571774125882</v>
       </c>
       <c r="V25">
-        <v>0.9992959098764642</v>
+        <v>-0.0007040901235357833</v>
       </c>
       <c r="W25">
-        <v>0.9923150816522575</v>
+        <v>-0.007684918347742542</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2769,7 +2769,7 @@
         <v>0.4746749388598553</v>
       </c>
       <c r="K26">
-        <v>32.18844549069576</v>
+        <v>-0.1781155450930424</v>
       </c>
       <c r="L26">
         <v>-0.02891184082763283</v>
@@ -2799,13 +2799,13 @@
         <v>-1.75</v>
       </c>
       <c r="U26">
-        <v>0.9996113709967615</v>
+        <v>-0.0003886290032385498</v>
       </c>
       <c r="V26">
-        <v>0.9993594670766078</v>
+        <v>-0.0006405329233921675</v>
       </c>
       <c r="W26">
-        <v>0.9990319457889641</v>
+        <v>-0.0009680542110358514</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2840,7 +2840,7 @@
         <v>0.5298650263931852</v>
       </c>
       <c r="K27">
-        <v>34.63475648190983</v>
+        <v>-0.1536524351809017</v>
       </c>
       <c r="L27">
         <v>-0.03308472314717969</v>
@@ -2870,13 +2870,13 @@
         <v>-1.78125</v>
       </c>
       <c r="U27">
-        <v>0.9996780472532114</v>
+        <v>-0.0003219527467885896</v>
       </c>
       <c r="V27">
-        <v>0.9993590565312139</v>
+        <v>-0.0006409434687860704</v>
       </c>
       <c r="W27">
-        <v>1.000968992248062</v>
+        <v>0.0009689922480620172</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2911,7 +2911,7 @@
         <v>0.5879598553756379</v>
       </c>
       <c r="K28">
-        <v>37.02611582939254</v>
+        <v>-0.1297388417060746</v>
       </c>
       <c r="L28">
         <v>-0.03643785985469201</v>
@@ -2941,13 +2941,13 @@
         <v>-1.625</v>
       </c>
       <c r="U28">
-        <v>0.9997373647839004</v>
+        <v>-0.0002626352160995937</v>
       </c>
       <c r="V28">
-        <v>0.9993586454592098</v>
+        <v>-0.0006413545407901733</v>
       </c>
       <c r="W28">
-        <v>1.000968054211036</v>
+        <v>0.0009680542110357404</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2982,7 +2982,7 @@
         <v>0.5238860257498781</v>
       </c>
       <c r="K29">
-        <v>34.3782944982439</v>
+        <v>-0.1562170550175609</v>
       </c>
       <c r="L29">
         <v>-0.03966460641162369</v>
@@ -3012,13 +3012,13 @@
         <v>-1.5</v>
       </c>
       <c r="U29">
-        <v>0.999687452355542</v>
+        <v>-0.0003125476444579833</v>
       </c>
       <c r="V29">
-        <v>0.999229880631498</v>
+        <v>-0.0007701193685020202</v>
       </c>
       <c r="W29">
-        <v>0.9980657640232108</v>
+        <v>-0.001934235976789211</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3053,7 +3053,7 @@
         <v>0.5812420984745014</v>
       </c>
       <c r="K30">
-        <v>36.75857726247315</v>
+        <v>-0.1324142273752685</v>
       </c>
       <c r="L30">
         <v>-0.04209911032519596</v>
@@ -3083,13 +3083,13 @@
         <v>-1.53125</v>
       </c>
       <c r="U30">
-        <v>0.999742047856039</v>
+        <v>-0.00025795214396096</v>
       </c>
       <c r="V30">
-        <v>0.9991650610147721</v>
+        <v>-0.0008349389852279065</v>
       </c>
       <c r="W30">
-        <v>1.000968992248062</v>
+        <v>0.0009689922480620172</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3124,7 +3124,7 @@
         <v>0.4921091111995238</v>
       </c>
       <c r="K31">
-        <v>32.9807724854593</v>
+        <v>-0.170192275145407</v>
       </c>
       <c r="L31">
         <v>-0.04481522368929871</v>
@@ -3154,13 +3154,13 @@
         <v>-1.59375</v>
       </c>
       <c r="U31">
-        <v>0.9996630764982051</v>
+        <v>-0.0003369235017949279</v>
       </c>
       <c r="V31">
-        <v>0.9989072443273124</v>
+        <v>-0.001092755672687629</v>
       </c>
       <c r="W31">
-        <v>0.9970958373668926</v>
+        <v>-0.002904162633107443</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3195,7 +3195,7 @@
         <v>0.5459158338358697</v>
       </c>
       <c r="K32">
-        <v>35.31342534226411</v>
+        <v>-0.1468657465773589</v>
       </c>
       <c r="L32">
         <v>-0.04700303591519703</v>
@@ -3225,13 +3225,13 @@
         <v>-1.71875</v>
       </c>
       <c r="U32">
-        <v>0.9995834000961383</v>
+        <v>-0.0004165999038616697</v>
       </c>
       <c r="V32">
-        <v>0.9992921492921493</v>
+        <v>-0.0007078507078507323</v>
       </c>
       <c r="W32">
-        <v>1.000970873786408</v>
+        <v>0.000970873786407811</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3266,7 +3266,7 @@
         <v>0.5166532863836569</v>
       </c>
       <c r="K33">
-        <v>34.06535237961849</v>
+        <v>-0.1593464762038151</v>
       </c>
       <c r="L33">
         <v>-0.04891426877116561</v>
@@ -3296,13 +3296,13 @@
         <v>-1.53125</v>
       </c>
       <c r="U33">
-        <v>0.9994870479610157</v>
+        <v>-0.0005129520389842712</v>
       </c>
       <c r="V33">
-        <v>0.9992272522377488</v>
+        <v>-0.0007727477622512247</v>
       </c>
       <c r="W33">
-        <v>0.9990300678952473</v>
+        <v>-0.0009699321047527132</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3337,7 +3337,7 @@
         <v>0.516653286383657</v>
       </c>
       <c r="K34">
-        <v>34.06535237961849</v>
+        <v>-0.1593464762038151</v>
       </c>
       <c r="L34">
         <v>-0.05035660236788339</v>
@@ -3367,13 +3367,13 @@
         <v>-1.28125</v>
       </c>
       <c r="U34">
-        <v>0.9996150885296381</v>
+        <v>-0.0003849114703619039</v>
       </c>
       <c r="V34">
-        <v>0.9994844364245666</v>
+        <v>-0.0005155635754333643</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3408,7 +3408,7 @@
         <v>0.4876877813990408</v>
       </c>
       <c r="K35">
-        <v>32.78159486800469</v>
+        <v>-0.1721840513199531</v>
       </c>
       <c r="L35">
         <v>-0.05159346009103379</v>
@@ -3438,13 +3438,13 @@
         <v>-1.25</v>
       </c>
       <c r="U35">
-        <v>0.999582852008728</v>
+        <v>-0.0004171479912720155</v>
       </c>
       <c r="V35">
-        <v>0.9995486491714488</v>
+        <v>-0.0004513508285511891</v>
       </c>
       <c r="W35">
-        <v>0.9990291262135922</v>
+        <v>-0.000970873786407811</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3479,7 +3479,7 @@
         <v>0.4362032042664024</v>
       </c>
       <c r="K36">
-        <v>30.37196985570091</v>
+        <v>-0.1962803014429909</v>
       </c>
       <c r="L36">
         <v>-0.05314603462472878</v>
@@ -3509,13 +3509,13 @@
         <v>-1.40625</v>
       </c>
       <c r="U36">
-        <v>0.9994221694327631</v>
+        <v>-0.0005778305672369255</v>
       </c>
       <c r="V36">
-        <v>0.9994194297509997</v>
+        <v>-0.0005805702490002673</v>
       </c>
       <c r="W36">
-        <v>0.9980563654033042</v>
+        <v>-0.001943634596695776</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3550,7 +3550,7 @@
         <v>0.4362032042664024</v>
       </c>
       <c r="K37">
-        <v>30.37196985570091</v>
+        <v>-0.1962803014429909</v>
       </c>
       <c r="L37">
         <v>-0.05459652745741815</v>
@@ -3580,13 +3580,13 @@
         <v>-1.4375</v>
       </c>
       <c r="U37">
-        <v>0.9993897150933094</v>
+        <v>-0.0006102849066905724</v>
       </c>
       <c r="V37">
-        <v>0.9992254566578456</v>
+        <v>-0.0007745433421544323</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3621,7 +3621,7 @@
         <v>0.4121007391794794</v>
       </c>
       <c r="K38">
-        <v>29.18352265851347</v>
+        <v>-0.2081647734148653</v>
       </c>
       <c r="L38">
         <v>-0.05604738704711931</v>
@@ -3651,13 +3651,13 @@
         <v>-1.46875</v>
       </c>
       <c r="U38">
-        <v>0.9993893424182039</v>
+        <v>-0.0006106575817961257</v>
       </c>
       <c r="V38">
-        <v>0.9991602609650541</v>
+        <v>-0.000839739034945941</v>
       </c>
       <c r="W38">
-        <v>0.9990262901655307</v>
+        <v>-0.0009737098344693162</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3692,7 +3692,7 @@
         <v>0.4702640347096901</v>
       </c>
       <c r="K39">
-        <v>31.98500565937775</v>
+        <v>-0.1801499434062225</v>
       </c>
       <c r="L39">
         <v>-0.05684952588744276</v>
@@ -3722,13 +3722,13 @@
         <v>-1.28125</v>
       </c>
       <c r="U39">
-        <v>0.9994211287988424</v>
+        <v>-0.0005788712011576269</v>
       </c>
       <c r="V39">
-        <v>0.9990949056115852</v>
+        <v>-0.0009050943884147955</v>
       </c>
       <c r="W39">
-        <v>1.000974658869396</v>
+        <v>0.0009746588693957392</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3763,7 +3763,7 @@
         <v>0.4431334040377374</v>
       </c>
       <c r="K40">
-        <v>30.70633683607463</v>
+        <v>-0.1929366316392537</v>
       </c>
       <c r="L40">
         <v>-0.05735458849224975</v>
@@ -3793,13 +3793,13 @@
         <v>-1.125</v>
       </c>
       <c r="U40">
-        <v>0.9994207935128873</v>
+        <v>-0.0005792064871127378</v>
       </c>
       <c r="V40">
-        <v>0.999547042836806</v>
+        <v>-0.0004529571631940454</v>
       </c>
       <c r="W40">
-        <v>0.9990262901655307</v>
+        <v>-0.0009737098344693162</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3834,7 +3834,7 @@
         <v>0.5645909533894999</v>
       </c>
       <c r="K41">
-        <v>36.08553099239011</v>
+        <v>-0.1391446900760989</v>
       </c>
       <c r="L41">
         <v>-0.05673391800283939</v>
@@ -3864,13 +3864,13 @@
         <v>-1.09375</v>
       </c>
       <c r="U41">
-        <v>0.9995492449853505</v>
+        <v>-0.0004507550146495287</v>
       </c>
       <c r="V41">
-        <v>0.9997410500420794</v>
+        <v>-0.00025894995792064</v>
       </c>
       <c r="W41">
-        <v>1.001949317738791</v>
+        <v>0.001949317738791478</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3905,7 +3905,7 @@
         <v>0.6924410053387237</v>
       </c>
       <c r="K42">
-        <v>40.91374548090314</v>
+        <v>-0.09086254519096859</v>
       </c>
       <c r="L42">
         <v>-0.0545591518785923</v>
@@ -3935,13 +3935,13 @@
         <v>-1.03125</v>
       </c>
       <c r="U42">
-        <v>0.9995812530198102</v>
+        <v>-0.0004187469801898436</v>
       </c>
       <c r="V42">
-        <v>0.9998057372272227</v>
+        <v>-0.0001942627727773427</v>
       </c>
       <c r="W42">
-        <v>1.001945525291829</v>
+        <v>0.001945525291828787</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3976,7 +3976,7 @@
         <v>0.827020007390538</v>
       </c>
       <c r="K43">
-        <v>45.26606189560774</v>
+        <v>-0.0473393810439226</v>
       </c>
       <c r="L43">
         <v>-0.05067692558744138</v>
@@ -4006,13 +4006,13 @@
         <v>-0.8125</v>
       </c>
       <c r="U43">
-        <v>0.999613302397525</v>
+        <v>-0.0003866976024750057</v>
       </c>
       <c r="V43">
-        <v>0.9998704663212437</v>
+        <v>-0.0001295336787563439</v>
       </c>
       <c r="W43">
-        <v>1.001941747572816</v>
+        <v>0.001941747572815622</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4047,7 +4047,7 @@
         <v>0.9686821148135007</v>
       </c>
       <c r="K44">
-        <v>49.20459771156437</v>
+        <v>-0.007954022884356315</v>
       </c>
       <c r="L44">
         <v>-0.04511648140758089</v>
@@ -4077,13 +4077,13 @@
         <v>-0.375</v>
       </c>
       <c r="U44">
-        <v>0.9996776273372019</v>
+        <v>-0.0003223726627981094</v>
       </c>
       <c r="V44">
-        <v>1.000129550459904</v>
+        <v>0.0001295504599039266</v>
       </c>
       <c r="W44">
-        <v>1.001937984496124</v>
+        <v>0.001937984496124034</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4118,7 +4118,7 @@
         <v>0.9686821148135007</v>
       </c>
       <c r="K45">
-        <v>49.20459771156437</v>
+        <v>-0.007954022884356315</v>
       </c>
       <c r="L45">
         <v>-0.03872820061961438</v>
@@ -4148,13 +4148,13 @@
         <v>0</v>
       </c>
       <c r="U45">
-        <v>0.9996130280554659</v>
+        <v>-0.0003869719445340758</v>
       </c>
       <c r="V45">
-        <v>1.000064766839379</v>
+        <v>6.476683937850503E-05</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4189,7 +4189,7 @@
         <v>0.8981893727581909</v>
       </c>
       <c r="K46">
-        <v>47.31821733113299</v>
+        <v>-0.02681782668867005</v>
       </c>
       <c r="L46">
         <v>-0.03245665485199579</v>
@@ -4219,13 +4219,13 @@
         <v>0.4375</v>
       </c>
       <c r="U46">
-        <v>0.999548357958578</v>
+        <v>-0.0004516420414220068</v>
       </c>
       <c r="V46">
-        <v>1.000194287934719</v>
+        <v>0.0001942879347189841</v>
       </c>
       <c r="W46">
-        <v>0.9990328820116054</v>
+        <v>-0.0009671179883945502</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4260,7 +4260,7 @@
         <v>0.9747912685083738</v>
       </c>
       <c r="K47">
-        <v>49.36173681002076</v>
+        <v>-0.006382631899792435</v>
       </c>
       <c r="L47">
         <v>-0.02618397348018732</v>
@@ -4290,13 +4290,13 @@
         <v>0.75</v>
       </c>
       <c r="U47">
-        <v>0.9997418022205009</v>
+        <v>-0.000258197779499092</v>
       </c>
       <c r="V47">
-        <v>1.00019425019425</v>
+        <v>0.0001942501942502339</v>
       </c>
       <c r="W47">
-        <v>1.000968054211036</v>
+        <v>0.0009680542110357404</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4331,7 +4331,7 @@
         <v>0.8394203430206831</v>
       </c>
       <c r="K48">
-        <v>45.63504726941276</v>
+        <v>-0.0436495273058724</v>
       </c>
       <c r="L48">
         <v>-0.02092088971428134</v>
@@ -4361,13 +4361,13 @@
         <v>1.09375</v>
       </c>
       <c r="U48">
-        <v>0.9996771694214877</v>
+        <v>-0.0003228305785123453</v>
       </c>
       <c r="V48">
-        <v>1.00012947497896</v>
+        <v>0.000129474978960431</v>
       </c>
       <c r="W48">
-        <v>0.9980657640232108</v>
+        <v>-0.001934235976789211</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4402,7 +4402,7 @@
         <v>0.9125107140791565</v>
       </c>
       <c r="K49">
-        <v>47.71271122099391</v>
+        <v>-0.02287288779006091</v>
       </c>
       <c r="L49">
         <v>-0.016175758741885</v>
@@ -4432,13 +4432,13 @@
         <v>1.3125</v>
       </c>
       <c r="U49">
-        <v>0.9998385325841245</v>
+        <v>-0.0001614674158755269</v>
       </c>
       <c r="V49">
-        <v>1.00019418732604</v>
+        <v>0.0001941873260404847</v>
       </c>
       <c r="W49">
-        <v>1.000968992248062</v>
+        <v>0.0009689922480620172</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4473,7 +4473,7 @@
         <v>0.7413893737791705</v>
       </c>
       <c r="K50">
-        <v>42.57458928730018</v>
+        <v>-0.07425410712699815</v>
       </c>
       <c r="L50">
         <v>-0.01304718311898082</v>
@@ -4503,13 +4503,13 @@
         <v>1.3125</v>
       </c>
       <c r="U50">
-        <v>0.9998062078098252</v>
+        <v>-0.0001937921901747908</v>
       </c>
       <c r="V50">
-        <v>1.000064716541548</v>
+        <v>6.471654154793782E-05</v>
       </c>
       <c r="W50">
-        <v>0.9970958373668926</v>
+        <v>-0.002904162633107443</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4544,7 +4544,7 @@
         <v>0.8071886839872107</v>
       </c>
       <c r="K51">
-        <v>44.66543483474596</v>
+        <v>-0.0533456516525404</v>
       </c>
       <c r="L51">
         <v>-0.01069693836270606</v>
@@ -4574,13 +4574,13 @@
         <v>1.1875</v>
       </c>
       <c r="U51">
-        <v>0.9998384752059443</v>
+        <v>-0.0001615247940557341</v>
       </c>
       <c r="V51">
-        <v>1.000258849414353</v>
+        <v>0.0002588494143531683</v>
       </c>
       <c r="W51">
-        <v>1.000970873786408</v>
+        <v>0.000970873786407811</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4615,7 +4615,7 @@
         <v>0.8071886839872106</v>
       </c>
       <c r="K52">
-        <v>44.66543483474595</v>
+        <v>-0.05334565165254046</v>
       </c>
       <c r="L52">
         <v>-0.008929096822065729</v>
@@ -4645,13 +4645,13 @@
         <v>0.875</v>
       </c>
       <c r="U52">
-        <v>0.9997415185783523</v>
+        <v>-0.0002584814216477493</v>
       </c>
       <c r="V52">
-        <v>1.000258782428673</v>
+        <v>0.0002587824286730545</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4686,7 +4686,7 @@
         <v>0.8071886839872104</v>
       </c>
       <c r="K53">
-        <v>44.66543483474595</v>
+        <v>-0.05334565165254046</v>
       </c>
       <c r="L53">
         <v>-0.007594256845402137</v>
@@ -4716,13 +4716,13 @@
         <v>0.5625</v>
       </c>
       <c r="U53">
-        <v>0.9997414517484325</v>
+        <v>-0.0002585482515674586</v>
       </c>
       <c r="V53">
-        <v>1.000323394347067</v>
+        <v>0.0003233943470666301</v>
       </c>
       <c r="W53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4757,7 +4757,7 @@
         <v>0.8071886839872106</v>
       </c>
       <c r="K54">
-        <v>44.66543483474595</v>
+        <v>-0.05334565165254046</v>
       </c>
       <c r="L54">
         <v>-0.006579161577624945</v>
@@ -4787,13 +4787,13 @@
         <v>0.28125</v>
       </c>
       <c r="U54">
-        <v>0.9996767311049329</v>
+        <v>-0.0003232688950670637</v>
       </c>
       <c r="V54">
-        <v>1.000258631837579</v>
+        <v>0.0002586318375792374</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4828,7 +4828,7 @@
         <v>0.8879729753392294</v>
       </c>
       <c r="K55">
-        <v>47.03314014225649</v>
+        <v>-0.02966859857743509</v>
       </c>
       <c r="L55">
         <v>-0.005445445429542355</v>
@@ -4858,13 +4858,13 @@
         <v>0</v>
       </c>
       <c r="U55">
-        <v>0.9999676626568361</v>
+        <v>-3.233734316387959E-05</v>
       </c>
       <c r="V55">
-        <v>1.000387847446671</v>
+        <v>0.0003878474466709747</v>
       </c>
       <c r="W55">
-        <v>1.000969932104753</v>
+        <v>0.0009699321047527132</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4899,7 +4899,7 @@
         <v>0.7074871415394507</v>
       </c>
       <c r="K56">
-        <v>41.43440523373948</v>
+        <v>-0.08565594766260526</v>
       </c>
       <c r="L56">
         <v>-0.005351469052961628</v>
@@ -4929,13 +4929,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U56">
-        <v>0.9999029848332956</v>
+        <v>-9.701516670435062E-05</v>
       </c>
       <c r="V56">
-        <v>1.000064616179891</v>
+        <v>6.46161798913969E-05</v>
       </c>
       <c r="W56">
-        <v>0.9970930232558139</v>
+        <v>-0.002906976744186052</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4970,7 +4970,7 @@
         <v>0.6603895494960893</v>
       </c>
       <c r="K57">
-        <v>39.77316947679601</v>
+        <v>-0.1022683052320399</v>
       </c>
       <c r="L57">
         <v>-0.006227006995733772</v>
@@ -5000,13 +5000,13 @@
         <v>-0.59375</v>
       </c>
       <c r="U57">
-        <v>0.9998382923673996</v>
+        <v>-0.0001617076326003719</v>
       </c>
       <c r="V57">
-        <v>0.999870775990179</v>
+        <v>-0.0001292240098209607</v>
       </c>
       <c r="W57">
-        <v>0.9990281827016521</v>
+        <v>-0.0009718172983479434</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5041,7 +5041,7 @@
         <v>0.6603895494960893</v>
       </c>
       <c r="K58">
-        <v>39.77316947679601</v>
+        <v>-0.1022683052320399</v>
       </c>
       <c r="L58">
         <v>-0.0076115419206369</v>
@@ -5071,13 +5071,13 @@
         <v>-0.65625</v>
       </c>
       <c r="U58">
-        <v>0.9998059194565745</v>
+        <v>-0.0001940805434255122</v>
       </c>
       <c r="V58">
-        <v>0.9997415185783523</v>
+        <v>-0.0002584814216477493</v>
       </c>
       <c r="W58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5112,7 +5112,7 @@
         <v>0.6150241138441468</v>
       </c>
       <c r="K59">
-        <v>38.08141987305942</v>
+        <v>-0.1191858012694058</v>
       </c>
       <c r="L59">
         <v>-0.00954176393164325</v>
@@ -5142,13 +5142,13 @@
         <v>-0.75</v>
       </c>
       <c r="U59">
-        <v>0.9998382348183379</v>
+        <v>-0.0001617651816621102</v>
       </c>
       <c r="V59">
-        <v>0.9995475405597569</v>
+        <v>-0.0004524594402430804</v>
       </c>
       <c r="W59">
-        <v>0.9990272373540856</v>
+        <v>-0.0009727626459143934</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5183,7 +5183,7 @@
         <v>0.6150241138441468</v>
       </c>
       <c r="K60">
-        <v>38.08141987305942</v>
+        <v>-0.1191858012694058</v>
       </c>
       <c r="L60">
         <v>-0.01164515465949787</v>
@@ -5213,13 +5213,13 @@
         <v>-0.78125</v>
       </c>
       <c r="U60">
-        <v>0.9998058503753559</v>
+        <v>-0.0001941496246441465</v>
       </c>
       <c r="V60">
-        <v>0.9995473357475426</v>
+        <v>-0.0004526642524573798</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5254,7 +5254,7 @@
         <v>0.6911404163099097</v>
       </c>
       <c r="K61">
-        <v>40.86830458572962</v>
+        <v>-0.0913169541427038</v>
       </c>
       <c r="L61">
         <v>-0.01332425797288818</v>
@@ -5284,13 +5284,13 @@
         <v>-0.78125</v>
       </c>
       <c r="U61">
-        <v>0.9999352708913196</v>
+        <v>-6.472910868038362E-05</v>
       </c>
       <c r="V61">
-        <v>0.9996765219641587</v>
+        <v>-0.0003234780358413181</v>
       </c>
       <c r="W61">
-        <v>1.000973709834469</v>
+        <v>0.0009737098344693162</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5325,7 +5325,7 @@
         <v>0.6911404163099096</v>
       </c>
       <c r="K62">
-        <v>40.8683045857296</v>
+        <v>-0.09131695414270397</v>
       </c>
       <c r="L62">
         <v>-0.01459105329166365</v>
@@ -5355,13 +5355,13 @@
         <v>-0.8125</v>
       </c>
       <c r="U62">
-        <v>0.9999029000517867</v>
+        <v>-9.709994821327506E-05</v>
       </c>
       <c r="V62">
-        <v>0.9996117007507118</v>
+        <v>-0.000388299249288182</v>
       </c>
       <c r="W62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5396,7 +5396,7 @@
         <v>0.6911404163099095</v>
       </c>
       <c r="K63">
-        <v>40.8683045857296</v>
+        <v>-0.09131695414270397</v>
       </c>
       <c r="L63">
         <v>-0.01547441149975301</v>
@@ -5426,13 +5426,13 @@
         <v>-0.875</v>
       </c>
       <c r="U63">
-        <v>0.9999352604149808</v>
+        <v>-6.473958501918009E-05</v>
       </c>
       <c r="V63">
-        <v>0.9997410332772239</v>
+        <v>-0.0002589667227761439</v>
       </c>
       <c r="W63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5467,7 +5467,7 @@
         <v>0.6911404163099095</v>
       </c>
       <c r="K64">
-        <v>40.8683045857296</v>
+        <v>-0.09131695414270397</v>
       </c>
       <c r="L64">
         <v>-0.01601299418810568</v>
@@ -5497,13 +5497,13 @@
         <v>-0.8125</v>
       </c>
       <c r="U64">
-        <v>0.9999352562234955</v>
+        <v>-6.474377650445007E-05</v>
       </c>
       <c r="V64">
-        <v>0.9996762077451108</v>
+        <v>-0.0003237922548892103</v>
       </c>
       <c r="W64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5538,7 +5538,7 @@
         <v>0.5823063651992101</v>
       </c>
       <c r="K65">
-        <v>36.80111374170567</v>
+        <v>-0.1319888625829433</v>
       </c>
       <c r="L65">
         <v>-0.01695685931620225</v>
@@ -5568,13 +5568,13 @@
         <v>-0.71875</v>
       </c>
       <c r="U65">
-        <v>0.9999028780472011</v>
+        <v>-9.712195279887315E-05</v>
       </c>
       <c r="V65">
-        <v>0.9997408822957826</v>
+        <v>-0.000259117704217382</v>
       </c>
       <c r="W65">
-        <v>0.9980544747081712</v>
+        <v>-0.001945525291828787</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5609,7 +5609,7 @@
         <v>0.7480645184780428</v>
       </c>
       <c r="K66">
-        <v>42.79387348525026</v>
+        <v>-0.07206126514749739</v>
       </c>
       <c r="L66">
         <v>-0.01731806471172015</v>
@@ -5639,13 +5639,13 @@
         <v>-0.65625</v>
       </c>
       <c r="U66">
-        <v>1.000032377128796</v>
+        <v>3.237712879622379E-05</v>
       </c>
       <c r="V66">
-        <v>0.9998056113522972</v>
+        <v>-0.0001943886477028256</v>
       </c>
       <c r="W66">
-        <v>1.001949317738791</v>
+        <v>0.001949317738791478</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5680,7 +5680,7 @@
         <v>0.7480645184780428</v>
       </c>
       <c r="K67">
-        <v>42.79387348525026</v>
+        <v>-0.07206126514749739</v>
       </c>
       <c r="L67">
         <v>-0.01724021524401091</v>
@@ -5710,13 +5710,13 @@
         <v>-0.5</v>
       </c>
       <c r="U67">
-        <v>1.000032376080552</v>
+        <v>3.237608055162156E-05</v>
       </c>
       <c r="V67">
-        <v>0.9998055735580038</v>
+        <v>-0.0001944264419961872</v>
       </c>
       <c r="W67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5751,7 +5751,7 @@
         <v>0.931730062277303</v>
       </c>
       <c r="K68">
-        <v>48.23293277213345</v>
+        <v>-0.01767067227866553</v>
       </c>
       <c r="L68">
         <v>-0.01613153103289133</v>
@@ -5781,13 +5781,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U68">
-        <v>1.0001295001295</v>
+        <v>0.000129500129500304</v>
       </c>
       <c r="V68">
-        <v>0.9999351785830038</v>
+        <v>-6.482141699615251E-05</v>
       </c>
       <c r="W68">
-        <v>1.001945525291829</v>
+        <v>0.001945525291828787</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5822,7 +5822,7 @@
         <v>0.9317300622773032</v>
       </c>
       <c r="K69">
-        <v>48.23293277213345</v>
+        <v>-0.01767067227866553</v>
       </c>
       <c r="L69">
         <v>-0.01440982973383415</v>
@@ -5852,13 +5852,13 @@
         <v>-0.125</v>
       </c>
       <c r="U69">
-        <v>1.000097112521041</v>
+        <v>9.711252104094292E-05</v>
       </c>
       <c r="V69">
-        <v>0.9999351743809152</v>
+        <v>-6.482561908482953E-05</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5893,7 +5893,7 @@
         <v>0.8456790372088295</v>
       </c>
       <c r="K70">
-        <v>45.81939872317817</v>
+        <v>-0.04180601276821833</v>
       </c>
       <c r="L70">
         <v>-0.01272728692328761</v>
@@ -5923,13 +5923,13 @@
         <v>0</v>
       </c>
       <c r="U70">
-        <v>1.000097103091115</v>
+        <v>9.710309111521376E-05</v>
       </c>
       <c r="V70">
-        <v>0.9998055105348462</v>
+        <v>-0.0001944894651537687</v>
       </c>
       <c r="W70">
-        <v>0.9990291262135922</v>
+        <v>-0.000970873786407811</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5964,7 +5964,7 @@
         <v>0.7707491012184094</v>
       </c>
       <c r="K71">
-        <v>43.52672553599354</v>
+        <v>-0.06473274464006457</v>
       </c>
       <c r="L71">
         <v>-0.01148293669601085</v>
@@ -5994,13 +5994,13 @@
         <v>0.125</v>
       </c>
       <c r="U71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V71">
-        <v>0.9999351575671117</v>
+        <v>-6.484243288829017E-05</v>
       </c>
       <c r="W71">
-        <v>0.9990281827016521</v>
+        <v>-0.0009718172983479434</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6035,7 +6035,7 @@
         <v>0.9572823209428664</v>
       </c>
       <c r="K72">
-        <v>48.90875019408146</v>
+        <v>-0.01091249805918537</v>
       </c>
       <c r="L72">
         <v>-0.009834247117931872</v>
@@ -6065,13 +6065,13 @@
         <v>0.21875</v>
       </c>
       <c r="U72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V72">
-        <v>1.000129693275404</v>
+        <v>0.0001296932754037972</v>
       </c>
       <c r="W72">
-        <v>1.001945525291829</v>
+        <v>0.001945525291828787</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6106,7 +6106,7 @@
         <v>0.8717025890590123</v>
       </c>
       <c r="K73">
-        <v>46.57270840754971</v>
+        <v>-0.03427291592450288</v>
       </c>
       <c r="L73">
         <v>-0.008363401710714851</v>
@@ -6136,13 +6136,13 @@
         <v>0.375</v>
       </c>
       <c r="U73">
-        <v>0.9999029063369796</v>
+        <v>-9.709366302035338E-05</v>
       </c>
       <c r="V73">
-        <v>1.000064838228619</v>
+        <v>6.48382286194682E-05</v>
       </c>
       <c r="W73">
-        <v>0.9990291262135922</v>
+        <v>-0.000970873786407811</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6177,7 +6177,7 @@
         <v>0.965806414365288</v>
       </c>
       <c r="K74">
-        <v>49.13029112671422</v>
+        <v>-0.008697088732857794</v>
       </c>
       <c r="L74">
         <v>-0.006709813290354322</v>
@@ -6207,13 +6207,13 @@
         <v>0.4375</v>
       </c>
       <c r="U74">
-        <v>0.9998705292118467</v>
+        <v>-0.0001294707881532853</v>
       </c>
       <c r="V74">
-        <v>1.000194502074689</v>
+        <v>0.0001945020746887405</v>
       </c>
       <c r="W74">
-        <v>1.000971817298348</v>
+        <v>0.0009718172983479434</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6248,7 +6248,7 @@
         <v>0.9658064143652881</v>
       </c>
       <c r="K75">
-        <v>49.13029112671422</v>
+        <v>-0.008697088732857794</v>
       </c>
       <c r="L75">
         <v>-0.005026375078363714</v>
@@ -6278,13 +6278,13 @@
         <v>0.46875</v>
       </c>
       <c r="U75">
-        <v>0.9998705124469909</v>
+        <v>-0.0001294875530091222</v>
       </c>
       <c r="V75">
-        <v>1.000194464250989</v>
+        <v>0.0001944642509885686</v>
       </c>
       <c r="W75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6319,7 +6319,7 @@
         <v>0.965806414365288</v>
       </c>
       <c r="K76">
-        <v>49.13029112671422</v>
+        <v>-0.008697088732857794</v>
       </c>
       <c r="L76">
         <v>-0.003413794203128047</v>
@@ -6349,13 +6349,13 @@
         <v>0.375</v>
       </c>
       <c r="U76">
-        <v>0.999902871758345</v>
+        <v>-9.712824165497569E-05</v>
       </c>
       <c r="V76">
-        <v>1.000129617627997</v>
+        <v>0.0001296176279972361</v>
       </c>
       <c r="W76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6390,7 +6390,7 @@
         <v>0.8702855518091969</v>
       </c>
       <c r="K77">
-        <v>46.53222878010993</v>
+        <v>-0.0346777121989007</v>
       </c>
       <c r="L77">
         <v>-0.002288276773312152</v>
@@ -6420,13 +6420,13 @@
         <v>0.28125</v>
       </c>
       <c r="U77">
-        <v>0.9998381038725553</v>
+        <v>-0.0001618961274446606</v>
       </c>
       <c r="V77">
-        <v>1.000064800414723</v>
+        <v>6.480041472256559E-05</v>
       </c>
       <c r="W77">
-        <v>0.9990291262135922</v>
+        <v>-0.000970873786407811</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6461,7 +6461,7 @@
         <v>0.8702855518091969</v>
       </c>
       <c r="K78">
-        <v>46.53222878010993</v>
+        <v>-0.0346777121989007</v>
       </c>
       <c r="L78">
         <v>-0.001521264974918436</v>
@@ -6491,13 +6491,13 @@
         <v>0.25</v>
       </c>
       <c r="U78">
-        <v>0.9999028465947732</v>
+        <v>-9.715340522675753E-05</v>
       </c>
       <c r="V78">
-        <v>1.000064796215901</v>
+        <v>6.479621590105289E-05</v>
       </c>
       <c r="W78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6532,7 +6532,7 @@
         <v>0.7138315505600406</v>
       </c>
       <c r="K79">
-        <v>41.65120838899114</v>
+        <v>-0.08348791611008854</v>
       </c>
       <c r="L79">
         <v>-0.001722441369025856</v>
@@ -6562,13 +6562,13 @@
         <v>0.21875</v>
       </c>
       <c r="U79">
-        <v>0.9998056743101438</v>
+        <v>-0.0001943256898562229</v>
       </c>
       <c r="V79">
-        <v>0.9999352079823765</v>
+        <v>-6.479201762354947E-05</v>
       </c>
       <c r="W79">
-        <v>0.9980563654033042</v>
+        <v>-0.001943634596695776</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6603,7 +6603,7 @@
         <v>0.7138315505600406</v>
       </c>
       <c r="K80">
-        <v>41.65120838899114</v>
+        <v>-0.08348791611008854</v>
       </c>
       <c r="L80">
         <v>-0.002491123572187823</v>
@@ -6633,13 +6633,13 @@
         <v>0.0625</v>
       </c>
       <c r="U80">
-        <v>0.9999028182701653</v>
+        <v>-9.718172983474993E-05</v>
       </c>
       <c r="V80">
-        <v>1.000064796215901</v>
+        <v>6.479621590105289E-05</v>
       </c>
       <c r="W80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6674,7 +6674,7 @@
         <v>0.8134288802587268</v>
       </c>
       <c r="K81">
-        <v>44.85584679464643</v>
+        <v>-0.05144153205353569</v>
       </c>
       <c r="L81">
         <v>-0.003191781129223154</v>
@@ -6704,13 +6704,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U81">
-        <v>0.9999028088249585</v>
+        <v>-9.719117504147778E-05</v>
       </c>
       <c r="V81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W81">
-        <v>1.000973709834469</v>
+        <v>0.0009737098344693162</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6745,7 +6745,7 @@
         <v>0.6724338909223765</v>
       </c>
       <c r="K82">
-        <v>40.2069041157446</v>
+        <v>-0.09793095884255398</v>
       </c>
       <c r="L82">
         <v>-0.004502678004834412</v>
@@ -6775,13 +6775,13 @@
         <v>-0.25</v>
       </c>
       <c r="U82">
-        <v>0.9998379989631935</v>
+        <v>-0.000162001036806525</v>
       </c>
       <c r="V82">
-        <v>0.999870415964753</v>
+        <v>-0.0001295840352469879</v>
       </c>
       <c r="W82">
-        <v>0.9980544747081712</v>
+        <v>-0.001945525291828787</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6816,7 +6816,7 @@
         <v>0.7636623817288395</v>
       </c>
       <c r="K83">
-        <v>43.29980554329538</v>
+        <v>-0.06700194456704617</v>
       </c>
       <c r="L83">
         <v>-0.00572962267287103</v>
@@ -6846,13 +6846,13 @@
         <v>-0.40625</v>
       </c>
       <c r="U83">
-        <v>0.999870378171684</v>
+        <v>-0.0001296218283159956</v>
       </c>
       <c r="V83">
-        <v>0.999805598755832</v>
+        <v>-0.0001944012441680298</v>
       </c>
       <c r="W83">
-        <v>1.000974658869396</v>
+        <v>0.0009746588693957392</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6887,7 +6887,7 @@
         <v>0.5928641623962635</v>
       </c>
       <c r="K84">
-        <v>37.22000760594513</v>
+        <v>-0.1277999239405487</v>
       </c>
       <c r="L84">
         <v>-0.007868402977717286</v>
@@ -6917,13 +6917,13 @@
         <v>-0.59375</v>
       </c>
       <c r="U84">
-        <v>0.9997731323934532</v>
+        <v>-0.0002268676065467767</v>
       </c>
       <c r="V84">
-        <v>0.9996111219132803</v>
+        <v>-0.0003888780867197239</v>
       </c>
       <c r="W84">
-        <v>0.9970788704965921</v>
+        <v>-0.002921129503407949</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6958,7 +6958,7 @@
         <v>0.6713402025936916</v>
       </c>
       <c r="K85">
-        <v>40.16777682675636</v>
+        <v>-0.09832223173243643</v>
       </c>
       <c r="L85">
         <v>-0.01004113796953556</v>
@@ -6988,13 +6988,13 @@
         <v>-0.6875</v>
       </c>
       <c r="U85">
-        <v>0.9997730809128631</v>
+        <v>-0.0002269190871369009</v>
       </c>
       <c r="V85">
-        <v>0.9997406470855217</v>
+        <v>-0.0002593529144783169</v>
       </c>
       <c r="W85">
-        <v>1.0009765625</v>
+        <v>0.0009765625</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7029,7 +7029,7 @@
         <v>0.7539465606962475</v>
       </c>
       <c r="K86">
-        <v>42.98572018049173</v>
+        <v>-0.07014279819508268</v>
       </c>
       <c r="L86">
         <v>-0.0117058357688533</v>
@@ -7059,13 +7059,13 @@
         <v>-0.78125</v>
       </c>
       <c r="U86">
-        <v>0.9999027268895303</v>
+        <v>-9.727311046969778E-05</v>
       </c>
       <c r="V86">
-        <v>0.9998702899020687</v>
+        <v>-0.0001297100979312793</v>
       </c>
       <c r="W86">
-        <v>1.000975609756098</v>
+        <v>0.0009756097560975618</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7100,7 +7100,7 @@
         <v>0.8409006218568328</v>
       </c>
       <c r="K87">
-        <v>45.67876244230145</v>
+        <v>-0.04321237557698554</v>
       </c>
       <c r="L87">
         <v>-0.01256026142933303</v>
@@ -7130,13 +7130,13 @@
         <v>-0.75</v>
       </c>
       <c r="U87">
-        <v>0.9999675724755173</v>
+        <v>-3.242752448273656E-05</v>
       </c>
       <c r="V87">
-        <v>0.9998054096127651</v>
+        <v>-0.0001945903872349053</v>
       </c>
       <c r="W87">
-        <v>1.000974658869396</v>
+        <v>0.0009746588693957392</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7171,7 +7171,7 @@
         <v>0.8409006218568328</v>
       </c>
       <c r="K88">
-        <v>45.67876244230145</v>
+        <v>-0.04321237557698554</v>
       </c>
       <c r="L88">
         <v>-0.01282361073506903</v>
@@ -7201,13 +7201,13 @@
         <v>-0.65625</v>
       </c>
       <c r="U88">
-        <v>0.9999675714239386</v>
+        <v>-3.242857606144955E-05</v>
       </c>
       <c r="V88">
-        <v>0.9998702478266512</v>
+        <v>-0.0001297521733487628</v>
       </c>
       <c r="W88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7242,7 +7242,7 @@
         <v>0.9372486120624675</v>
       </c>
       <c r="K89">
-        <v>48.3803992025906</v>
+        <v>-0.01619600797409398</v>
       </c>
       <c r="L89">
         <v>-0.01231127602346403</v>
@@ -7272,13 +7272,13 @@
         <v>-0.625</v>
       </c>
       <c r="U89">
-        <v>1.000032429627708</v>
+        <v>3.24296277081082E-05</v>
       </c>
       <c r="V89">
-        <v>0.9998702309888398</v>
+        <v>-0.0001297690111602412</v>
       </c>
       <c r="W89">
-        <v>1.000973709834469</v>
+        <v>0.0009737098344693162</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7313,7 +7313,7 @@
         <v>0.9372486120624675</v>
       </c>
       <c r="K90">
-        <v>48.3803992025906</v>
+        <v>-0.01619600797409398</v>
       </c>
       <c r="L90">
         <v>-0.01131662272178806</v>
@@ -7343,13 +7343,13 @@
         <v>-0.4375</v>
       </c>
       <c r="U90">
-        <v>1.000032428576061</v>
+        <v>3.242857606111649E-05</v>
       </c>
       <c r="V90">
-        <v>0.9998702141466581</v>
+        <v>-0.0001297858533418905</v>
       </c>
       <c r="W90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7384,7 +7384,7 @@
         <v>1.150762163764705</v>
       </c>
       <c r="K91">
-        <v>53.50485437917528</v>
+        <v>0.03504854379175282</v>
       </c>
       <c r="L91">
         <v>-0.009343461755451208</v>
@@ -7414,13 +7414,13 @@
         <v>-0.25</v>
       </c>
       <c r="U91">
-        <v>1.000064855048965</v>
+        <v>6.485504896547312E-05</v>
       </c>
       <c r="V91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W91">
-        <v>1.001945525291829</v>
+        <v>0.001945525291828787</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7455,7 +7455,7 @@
         <v>1.263137717292198</v>
       </c>
       <c r="K92">
-        <v>55.81355953907739</v>
+        <v>0.05813559539077384</v>
       </c>
       <c r="L92">
         <v>-0.006514671412942025</v>
@@ -7485,13 +7485,13 @@
         <v>0.15625</v>
       </c>
       <c r="U92">
-        <v>1.000097276264591</v>
+        <v>9.727626459143934E-05</v>
       </c>
       <c r="V92">
-        <v>1.000129802699896</v>
+        <v>0.0001298026998959312</v>
       </c>
       <c r="W92">
-        <v>1.000970873786408</v>
+        <v>0.000970873786407811</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7526,7 +7526,7 @@
         <v>1.263137717292198</v>
       </c>
       <c r="K93">
-        <v>55.81355953907739</v>
+        <v>0.05813559539077384</v>
       </c>
       <c r="L93">
         <v>-0.003323814328614229</v>
@@ -7556,13 +7556,13 @@
         <v>0.46875</v>
       </c>
       <c r="U93">
-        <v>1.00009726680284</v>
+        <v>9.7266802840279E-05</v>
       </c>
       <c r="V93">
-        <v>1.000129785853342</v>
+        <v>0.0001297858533420015</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7597,7 +7597,7 @@
         <v>1.123272489808108</v>
       </c>
       <c r="K94">
-        <v>52.90288906392907</v>
+        <v>0.02902889063929071</v>
       </c>
       <c r="L94">
         <v>-0.0004590522149905492</v>
@@ -7627,13 +7627,13 @@
         <v>0.6875</v>
       </c>
       <c r="U94">
-        <v>1.000064838228619</v>
+        <v>6.48382286194682E-05</v>
       </c>
       <c r="V94">
-        <v>1.00019465351674</v>
+        <v>0.0001946535167403063</v>
       </c>
       <c r="W94">
-        <v>0.9990300678952473</v>
+        <v>-0.0009699321047527132</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7668,7 +7668,7 @@
         <v>1.006015166648725</v>
       </c>
       <c r="K95">
-        <v>50.14992824453003</v>
+        <v>0.001499282445300287</v>
       </c>
       <c r="L95">
         <v>0.001672903305852037</v>
@@ -7698,13 +7698,13 @@
         <v>0.75</v>
       </c>
       <c r="U95">
-        <v>1.000097251037344</v>
+        <v>9.725103734425922E-05</v>
       </c>
       <c r="V95">
-        <v>1.000129743756082</v>
+        <v>0.0001297437560816572</v>
       </c>
       <c r="W95">
-        <v>0.9990291262135922</v>
+        <v>-0.000970873786407811</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7739,7 +7739,7 @@
         <v>1.006015166648725</v>
       </c>
       <c r="K96">
-        <v>50.14992824453003</v>
+        <v>0.001499282445300287</v>
       </c>
       <c r="L96">
         <v>0.003218833247886922</v>
@@ -7769,13 +7769,13 @@
         <v>0.8125</v>
       </c>
       <c r="U96">
-        <v>1.000032413860167</v>
+        <v>3.241386016683556E-05</v>
       </c>
       <c r="V96">
-        <v>1.000064863462412</v>
+        <v>6.48634624116351E-05</v>
       </c>
       <c r="W96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7810,7 +7810,7 @@
         <v>1.006015166648725</v>
       </c>
       <c r="K97">
-        <v>50.14992824453002</v>
+        <v>0.001499282445300176</v>
       </c>
       <c r="L97">
         <v>0.004299426184557351</v>
@@ -7840,13 +7840,13 @@
         <v>0.84375</v>
       </c>
       <c r="U97">
-        <v>1.000032412809542</v>
+        <v>3.241280954235926E-05</v>
       </c>
       <c r="V97">
-        <v>1.000194577766247</v>
+        <v>0.0001945777662473169</v>
       </c>
       <c r="W97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7881,7 +7881,7 @@
         <v>0.8968231588816944</v>
       </c>
       <c r="K98">
-        <v>47.28027252737848</v>
+        <v>-0.02719727472621519</v>
       </c>
       <c r="L98">
         <v>0.004659353767721764</v>
@@ -7911,13 +7911,13 @@
         <v>0.78125</v>
       </c>
       <c r="U98">
-        <v>0.9999351764820276</v>
+        <v>-6.482351797243435E-05</v>
       </c>
       <c r="V98">
-        <v>1.000064846637702</v>
+        <v>6.48466377020096E-05</v>
       </c>
       <c r="W98">
-        <v>0.9990281827016521</v>
+        <v>-0.0009718172983479434</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7952,7 +7952,7 @@
         <v>1.011074871335625</v>
       </c>
       <c r="K99">
-        <v>50.27534706672233</v>
+        <v>0.002753470667223201</v>
       </c>
       <c r="L99">
         <v>0.004896998690078289</v>
@@ -7982,13 +7982,13 @@
         <v>0.65625</v>
       </c>
       <c r="U99">
-        <v>0.9999675861398334</v>
+        <v>-3.241386016661352E-05</v>
       </c>
       <c r="V99">
-        <v>1.00032421216444</v>
+        <v>0.0003242121644402296</v>
       </c>
       <c r="W99">
-        <v>1.000972762645914</v>
+        <v>0.0009727626459143934</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8023,7 +8023,7 @@
         <v>0.8150346511245312</v>
       </c>
       <c r="K100">
-        <v>44.90463312199382</v>
+        <v>-0.0509536687800618</v>
       </c>
       <c r="L100">
         <v>0.004319251109809416</v>
@@ -8053,13 +8053,13 @@
         <v>0.3125</v>
       </c>
       <c r="U100">
-        <v>0.999935170178282</v>
+        <v>-6.482982171795992E-05</v>
       </c>
       <c r="V100">
-        <v>1.000129642833992</v>
+        <v>0.000129642833992305</v>
       </c>
       <c r="W100">
-        <v>0.9980563654033042</v>
+        <v>-0.001943634596695776</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8094,7 +8094,7 @@
         <v>0.8150346511245313</v>
       </c>
       <c r="K101">
-        <v>44.90463312199383</v>
+        <v>-0.05095366878006174</v>
       </c>
       <c r="L101">
         <v>0.003268709794880827</v>
@@ -8124,13 +8124,13 @@
         <v>0</v>
       </c>
       <c r="U101">
-        <v>0.999967582987552</v>
+        <v>-3.24170124480494E-05</v>
       </c>
       <c r="V101">
-        <v>1.000064813014453</v>
+        <v>6.481301445337984E-05</v>
       </c>
       <c r="W101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8165,7 +8165,7 @@
         <v>1.029874409014432</v>
       </c>
       <c r="K102">
-        <v>50.73586840845334</v>
+        <v>0.00735868408453344</v>
       </c>
       <c r="L102">
         <v>0.002695109886993829</v>
@@ -8195,13 +8195,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U102">
-        <v>0.9999675819366551</v>
+        <v>-3.241806334486341E-05</v>
       </c>
       <c r="V102">
-        <v>1.000129617627997</v>
+        <v>0.0001296176279972361</v>
       </c>
       <c r="W102">
-        <v>1.001947419668939</v>
+        <v>0.001947419668938632</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8236,7 +8236,7 @@
         <v>0.925252785619936</v>
       </c>
       <c r="K103">
-        <v>48.05876882925804</v>
+        <v>-0.01941231170741958</v>
       </c>
       <c r="L103">
         <v>0.002083032036306073</v>
@@ -8266,13 +8266,13 @@
         <v>-0.25</v>
       </c>
       <c r="U103">
-        <v>0.9999675808856903</v>
+        <v>-3.24191143097341E-05</v>
       </c>
       <c r="V103">
-        <v>1.000064800414723</v>
+        <v>6.480041472256559E-05</v>
       </c>
       <c r="W103">
-        <v>0.9990281827016521</v>
+        <v>-0.0009718172983479434</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8307,7 +8307,7 @@
         <v>1.13911968756806</v>
       </c>
       <c r="K104">
-        <v>53.25179765247786</v>
+        <v>0.03251797652477861</v>
       </c>
       <c r="L104">
         <v>0.002187303425061969</v>
@@ -8337,13 +8337,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V104">
-        <v>1.000129592431802</v>
+        <v>0.0001295924318021058</v>
       </c>
       <c r="W104">
-        <v>1.001945525291829</v>
+        <v>0.001945525291828787</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8378,7 +8378,7 @@
         <v>1.13911968756806</v>
       </c>
       <c r="K105">
-        <v>53.25179765247785</v>
+        <v>0.0325179765247785</v>
       </c>
       <c r="L105">
         <v>0.002710904556491331</v>
@@ -8408,13 +8408,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V105">
-        <v>1.00012957563978</v>
+        <v>0.0001295756397798886</v>
       </c>
       <c r="W105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8449,7 +8449,7 @@
         <v>1.257605505821868</v>
       </c>
       <c r="K106">
-        <v>55.70528166142313</v>
+        <v>0.05705281661423134</v>
       </c>
       <c r="L106">
         <v>0.003799365078244015</v>
@@ -8479,13 +8479,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U106">
-        <v>1.000032420165343</v>
+        <v>3.242016534277248E-05</v>
       </c>
       <c r="V106">
-        <v>1.000064779426054</v>
+        <v>6.477942605420672E-05</v>
       </c>
       <c r="W106">
-        <v>1.000970873786408</v>
+        <v>0.000970873786407811</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8520,7 +8520,7 @@
         <v>1.382327419773245</v>
       </c>
       <c r="K107">
-        <v>58.02424168483179</v>
+        <v>0.0802424168483179</v>
       </c>
       <c r="L107">
         <v>0.005500820991401091</v>
@@ -8550,13 +8550,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U107">
-        <v>1.000097257342929</v>
+        <v>9.72573429292023E-05</v>
       </c>
       <c r="V107">
-        <v>1.000064775229952</v>
+        <v>6.47752299520743E-05</v>
       </c>
       <c r="W107">
-        <v>1.000969932104753</v>
+        <v>0.0009699321047527132</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8591,7 +8591,7 @@
         <v>1.382327419773245</v>
       </c>
       <c r="K108">
-        <v>58.02424168483179</v>
+        <v>0.0802424168483179</v>
       </c>
       <c r="L108">
         <v>0.007444986486319401</v>
@@ -8621,13 +8621,13 @@
         <v>0.21875</v>
       </c>
       <c r="U108">
-        <v>1.000097247884859</v>
+        <v>9.724788485865332E-05</v>
       </c>
       <c r="V108">
-        <v>1.000064771034393</v>
+        <v>6.477103439328502E-05</v>
       </c>
       <c r="W108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8662,7 +8662,7 @@
         <v>1.796915499390011</v>
       </c>
       <c r="K109">
-        <v>64.24632777722124</v>
+        <v>0.1424632777722123</v>
       </c>
       <c r="L109">
         <v>0.01044705247206546</v>
@@ -8692,13 +8692,13 @@
         <v>0.59375</v>
       </c>
       <c r="U109">
-        <v>1.000259302476339</v>
+        <v>0.000259302476338652</v>
       </c>
       <c r="V109">
-        <v>1.000323834196891</v>
+        <v>0.0003238341968914149</v>
       </c>
       <c r="W109">
-        <v>1.002906976744186</v>
+        <v>0.002906976744186052</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8733,7 +8733,7 @@
         <v>1.391944541826019</v>
       </c>
       <c r="K110">
-        <v>58.19301064410981</v>
+        <v>0.08193010644109811</v>
       </c>
       <c r="L110">
         <v>0.01315198352130411</v>
@@ -8763,13 +8763,13 @@
         <v>0.75</v>
       </c>
       <c r="U110">
-        <v>1.000194426441996</v>
+        <v>0.0001944264419959651</v>
       </c>
       <c r="V110">
-        <v>1.000258983489803</v>
+        <v>0.0002589834898025778</v>
       </c>
       <c r="W110">
-        <v>0.9980676328502416</v>
+        <v>-0.001932367149758418</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8804,7 +8804,7 @@
         <v>1.391944541826019</v>
       </c>
       <c r="K111">
-        <v>58.19301064410982</v>
+        <v>0.08193010644109822</v>
       </c>
       <c r="L111">
         <v>0.01545614908245935</v>
@@ -8834,13 +8834,13 @@
         <v>0.9375</v>
       </c>
       <c r="U111">
-        <v>1.000161990539753</v>
+        <v>0.0001619905397525212</v>
       </c>
       <c r="V111">
-        <v>1.000258916434721</v>
+        <v>0.0002589164347206463</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8875,7 +8875,7 @@
         <v>1.641662062083208</v>
       </c>
       <c r="K112">
-        <v>62.14504442663637</v>
+        <v>0.1214504442663636</v>
       </c>
       <c r="L112">
         <v>0.01802176073620615</v>
@@ -8905,13 +8905,13 @@
         <v>1.0625</v>
       </c>
       <c r="U112">
-        <v>1.000291535745522</v>
+        <v>0.0002915357455215428</v>
       </c>
       <c r="V112">
-        <v>1.00038827412153</v>
+        <v>0.0003882741215297525</v>
       </c>
       <c r="W112">
-        <v>1.001936108422072</v>
+        <v>0.001936108422071703</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8946,7 +8946,7 @@
         <v>1.450961760587467</v>
       </c>
       <c r="K113">
-        <v>59.19968984908554</v>
+        <v>0.09199689849085546</v>
       </c>
       <c r="L113">
         <v>0.02016196656851763</v>
@@ -8976,13 +8976,13 @@
         <v>1.15625</v>
       </c>
       <c r="U113">
-        <v>1.000226683937824</v>
+        <v>0.0002266839378237684</v>
       </c>
       <c r="V113">
-        <v>1.000388123423249</v>
+        <v>0.0003881234232487873</v>
       </c>
       <c r="W113">
-        <v>0.9990338164251208</v>
+        <v>-0.0009661835748792091</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9017,7 +9017,7 @@
         <v>1.695515331149332</v>
       </c>
       <c r="K114">
-        <v>62.90134252088956</v>
+        <v>0.1290134252088956</v>
       </c>
       <c r="L114">
         <v>0.02254162637919665</v>
@@ -9047,13 +9047,13 @@
         <v>1.21875</v>
       </c>
       <c r="U114">
-        <v>1.00038851296662</v>
+        <v>0.0003885129666203468</v>
       </c>
       <c r="V114">
-        <v>1.000452634982218</v>
+        <v>0.0004526349822180364</v>
       </c>
       <c r="W114">
-        <v>1.001934235976789</v>
+        <v>0.0019342359767891</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9088,7 +9088,7 @@
         <v>1.695515331149332</v>
       </c>
       <c r="K115">
-        <v>62.90134252088956</v>
+        <v>0.1290134252088957</v>
       </c>
       <c r="L115">
         <v>0.02483159700702893</v>
@@ -9118,13 +9118,13 @@
         <v>1.25</v>
       </c>
       <c r="U115">
-        <v>1.000355998576006</v>
+        <v>0.0003559985760055451</v>
       </c>
       <c r="V115">
-        <v>1.000581695966908</v>
+        <v>0.0005816959669078248</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9159,7 +9159,7 @@
         <v>1.831002073842886</v>
       </c>
       <c r="K116">
-        <v>64.67681852869254</v>
+        <v>0.1467681852869254</v>
       </c>
       <c r="L116">
         <v>0.0271835218712578</v>
@@ -9189,13 +9189,13 @@
         <v>1.25</v>
       </c>
       <c r="U116">
-        <v>1.000355871886121</v>
+        <v>0.000355871886121184</v>
       </c>
       <c r="V116">
-        <v>1.000645953103805</v>
+        <v>0.000645953103804775</v>
       </c>
       <c r="W116">
-        <v>1.000965250965251</v>
+        <v>0.0009652509652509078</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9230,7 +9230,7 @@
         <v>1.831002073842885</v>
       </c>
       <c r="K117">
-        <v>64.67681852869254</v>
+        <v>0.1467681852869254</v>
       </c>
       <c r="L117">
         <v>0.02932292664195298</v>
@@ -9260,13 +9260,13 @@
         <v>1.0625</v>
       </c>
       <c r="U117">
-        <v>1.000323404805795</v>
+        <v>0.000323404805795402</v>
       </c>
       <c r="V117">
-        <v>1.000516428894197</v>
+        <v>0.0005164288941965633</v>
       </c>
       <c r="W117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9301,7 +9301,7 @@
         <v>1.592004313422207</v>
       </c>
       <c r="K118">
-        <v>61.41981728881822</v>
+        <v>0.1141981728881822</v>
       </c>
       <c r="L118">
         <v>0.03073600636800357</v>
@@ -9331,13 +9331,13 @@
         <v>1.03125</v>
       </c>
       <c r="U118">
-        <v>1.000290970224047</v>
+        <v>0.0002909702240470047</v>
       </c>
       <c r="V118">
-        <v>1.000516162333054</v>
+        <v>0.0005161623330536269</v>
       </c>
       <c r="W118">
-        <v>0.9990356798457087</v>
+        <v>-0.0009643201542912649</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9372,7 +9372,7 @@
         <v>1.866800932727501</v>
       </c>
       <c r="K119">
-        <v>65.11791284201269</v>
+        <v>0.1511791284201268</v>
       </c>
       <c r="L119">
         <v>0.03221315378766949</v>
@@ -9402,13 +9402,13 @@
         <v>1.03125</v>
       </c>
       <c r="U119">
-        <v>1.000323206205559</v>
+        <v>0.0003232062055593676</v>
       </c>
       <c r="V119">
-        <v>1.000515896046946</v>
+        <v>0.0005158960469464624</v>
       </c>
       <c r="W119">
-        <v>1.001930501930502</v>
+        <v>0.001930501930502038</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9443,7 +9443,7 @@
         <v>1.866800932727501</v>
       </c>
       <c r="K120">
-        <v>65.11791284201269</v>
+        <v>0.1511791284201268</v>
       </c>
       <c r="L120">
         <v>0.03351651189459442</v>
@@ -9473,13 +9473,13 @@
         <v>0.96875</v>
       </c>
       <c r="U120">
-        <v>1.00032310177706</v>
+        <v>0.0003231017770597422</v>
       </c>
       <c r="V120">
-        <v>1.00051563003545</v>
+        <v>0.0005156300354496324</v>
       </c>
       <c r="W120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9514,7 +9514,7 @@
         <v>1.281504784628608</v>
       </c>
       <c r="K121">
-        <v>56.16927885764729</v>
+        <v>0.06169278857647287</v>
       </c>
       <c r="L121">
         <v>0.0334493066622349</v>
@@ -9544,13 +9544,13 @@
         <v>0.875</v>
       </c>
       <c r="U121">
-        <v>1.00016149870801</v>
+        <v>0.0001614987080102992</v>
       </c>
       <c r="V121">
-        <v>1.000257682149069</v>
+        <v>0.0002576821490694048</v>
       </c>
       <c r="W121">
-        <v>0.9971098265895953</v>
+        <v>-0.002890173410404651</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9585,7 +9585,7 @@
         <v>1.281504784628608</v>
       </c>
       <c r="K122">
-        <v>56.16927885764729</v>
+        <v>0.06169278857647287</v>
       </c>
       <c r="L122">
         <v>0.03243471138959132</v>
@@ -9615,13 +9615,13 @@
         <v>0.6875</v>
       </c>
       <c r="U122">
-        <v>1.000129178104311</v>
+        <v>0.0001291781043111229</v>
       </c>
       <c r="V122">
-        <v>1.000193211824564</v>
+        <v>0.000193211824563555</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9656,7 +9656,7 @@
         <v>1.148507430596172</v>
       </c>
       <c r="K123">
-        <v>53.45606043715112</v>
+        <v>0.03456060437151121</v>
       </c>
       <c r="L123">
         <v>0.03044032936007949</v>
@@ -9686,13 +9686,13 @@
         <v>0.5</v>
       </c>
       <c r="U123">
-        <v>1.000096871064613</v>
+        <v>9.687106461320205E-05</v>
       </c>
       <c r="V123">
-        <v>1.000128783000644</v>
+        <v>0.0001287830006440061</v>
       </c>
       <c r="W123">
-        <v>0.9990338164251208</v>
+        <v>-0.0009661835748792091</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9727,7 +9727,7 @@
         <v>1.035396199310421</v>
       </c>
       <c r="K124">
-        <v>50.86951619842892</v>
+        <v>0.008695161984289212</v>
       </c>
       <c r="L124">
         <v>0.02751665388208124</v>
@@ -9757,13 +9757,13 @@
         <v>0.21875</v>
       </c>
       <c r="U124">
-        <v>1.000096861681519</v>
+        <v>9.686168151867847E-05</v>
       </c>
       <c r="V124">
-        <v>0.9998712335822817</v>
+        <v>-0.0001287664177183068</v>
       </c>
       <c r="W124">
-        <v>0.9990328820116054</v>
+        <v>-0.0009671179883945502</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9798,7 +9798,7 @@
         <v>1.139065057528602</v>
       </c>
       <c r="K125">
-        <v>53.25060374015161</v>
+        <v>0.03250603740151614</v>
       </c>
       <c r="L125">
         <v>0.02446963125875608</v>
@@ -9828,13 +9828,13 @@
         <v>0.0625</v>
       </c>
       <c r="U125">
-        <v>1.000161420500404</v>
+        <v>0.0001614205004036862</v>
       </c>
       <c r="V125">
-        <v>1.000064391500322</v>
+        <v>6.439150032222507E-05</v>
       </c>
       <c r="W125">
-        <v>1.000968054211036</v>
+        <v>0.0009680542110357404</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9869,7 +9869,7 @@
         <v>1.248190171442475</v>
       </c>
       <c r="K126">
-        <v>55.5197770765814</v>
+        <v>0.055197770765814</v>
       </c>
       <c r="L126">
         <v>0.02180580795122193</v>
@@ -9899,13 +9899,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U126">
-        <v>1.000193673337637</v>
+        <v>0.0001936733376370903</v>
       </c>
       <c r="V126">
-        <v>1.000128774708647</v>
+        <v>0.0001287747086471391</v>
       </c>
       <c r="W126">
-        <v>1.000967117988395</v>
+        <v>0.0009671179883945502</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9940,7 +9940,7 @@
         <v>1.119585068178052</v>
       </c>
       <c r="K127">
-        <v>52.82095467583295</v>
+        <v>0.02820954675832954</v>
       </c>
       <c r="L127">
         <v>0.01911197348283188</v>
@@ -9970,13 +9970,13 @@
         <v>-0.34375</v>
       </c>
       <c r="U127">
-        <v>1.000161363196282</v>
+        <v>0.0001613631962822382</v>
       </c>
       <c r="V127">
-        <v>0.9999356209360717</v>
+        <v>-6.437906392831039E-05</v>
       </c>
       <c r="W127">
-        <v>0.9990338164251208</v>
+        <v>-0.0009661835748792091</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10011,7 +10011,7 @@
         <v>1.119585068178052</v>
       </c>
       <c r="K128">
-        <v>52.82095467583296</v>
+        <v>0.02820954675832954</v>
       </c>
       <c r="L128">
         <v>0.01650222387972252</v>
@@ -10041,13 +10041,13 @@
         <v>-0.5625</v>
       </c>
       <c r="U128">
-        <v>1.000193604594882</v>
+        <v>0.0001936045948824905</v>
       </c>
       <c r="V128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10082,7 +10082,7 @@
         <v>1.233749345897194</v>
       </c>
       <c r="K129">
-        <v>55.23221968316476</v>
+        <v>0.05232219683164763</v>
       </c>
       <c r="L129">
         <v>0.01440208247115061</v>
@@ -10112,13 +10112,13 @@
         <v>-0.59375</v>
       </c>
       <c r="U129">
-        <v>1.000193567119399</v>
+        <v>0.0001935671193986632</v>
       </c>
       <c r="V129">
-        <v>0.999935616791141</v>
+        <v>-6.438320885904236E-05</v>
       </c>
       <c r="W129">
-        <v>1.000967117988395</v>
+        <v>0.0009671179883945502</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10153,7 +10153,7 @@
         <v>1.233749345897194</v>
       </c>
       <c r="K130">
-        <v>55.23221968316476</v>
+        <v>0.05232219683164763</v>
       </c>
       <c r="L130">
         <v>0.01269195809739633</v>
@@ -10183,13 +10183,13 @@
         <v>-0.5625</v>
       </c>
       <c r="U130">
-        <v>1.00025803954456</v>
+        <v>0.0002580395445601624</v>
       </c>
       <c r="V130">
-        <v>0.9999356126456762</v>
+        <v>-6.438735432379161E-05</v>
       </c>
       <c r="W130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10224,7 +10224,7 @@
         <v>1.09520793547525</v>
       </c>
       <c r="K131">
-        <v>52.27204025584348</v>
+        <v>0.02272040255843477</v>
       </c>
       <c r="L131">
         <v>0.01092857088865938</v>
@@ -10254,13 +10254,13 @@
         <v>-0.5</v>
       </c>
       <c r="U131">
-        <v>1.000225726355164</v>
+        <v>0.0002257263551643796</v>
       </c>
       <c r="V131">
-        <v>0.9998068254990343</v>
+        <v>-0.000193174500965676</v>
       </c>
       <c r="W131">
-        <v>0.9990338164251208</v>
+        <v>-0.0009661835748792091</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10295,7 +10295,7 @@
         <v>0.9794355630443757</v>
       </c>
       <c r="K132">
-        <v>49.48054795671155</v>
+        <v>-0.005194520432884486</v>
       </c>
       <c r="L132">
         <v>0.008853380075502716</v>
@@ -10325,13 +10325,13 @@
         <v>-0.375</v>
       </c>
       <c r="U132">
-        <v>1.000128957379586</v>
+        <v>0.0001289573795859589</v>
       </c>
       <c r="V132">
-        <v>0.9997423842339149</v>
+        <v>-0.0002576157660850731</v>
       </c>
       <c r="W132">
-        <v>0.9990328820116054</v>
+        <v>-0.0009671179883945502</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10366,7 +10366,7 @@
         <v>1.090707268848362</v>
       </c>
       <c r="K133">
-        <v>52.16929625203645</v>
+        <v>0.02169296252036457</v>
       </c>
       <c r="L133">
         <v>0.007041615962861444</v>
@@ -10396,13 +10396,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U133">
-        <v>1.000193411127587</v>
+        <v>0.0001934111275869732</v>
       </c>
       <c r="V133">
-        <v>0.9998711589254655</v>
+        <v>-0.0001288410745344803</v>
       </c>
       <c r="W133">
-        <v>1.000968054211036</v>
+        <v>0.0009680542110357404</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10437,7 +10437,7 @@
         <v>1.20783538022098</v>
       </c>
       <c r="K134">
-        <v>54.70676804264676</v>
+        <v>0.0470676804264677</v>
       </c>
       <c r="L134">
         <v>0.005831385273361609</v>
@@ -10467,13 +10467,13 @@
         <v>-0.25</v>
       </c>
       <c r="U134">
-        <v>1.000161144772464</v>
+        <v>0.0001611447724636506</v>
       </c>
       <c r="V134">
-        <v>0.9998067134849559</v>
+        <v>-0.0001932865150441332</v>
       </c>
       <c r="W134">
-        <v>1.000967117988395</v>
+        <v>0.0009671179883945502</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10508,7 +10508,7 @@
         <v>1.20783538022098</v>
       </c>
       <c r="K135">
-        <v>54.70676804264676</v>
+        <v>0.0470676804264677</v>
       </c>
       <c r="L135">
         <v>0.005041383634165121</v>
@@ -10538,13 +10538,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U135">
-        <v>1.00016111880901</v>
+        <v>0.0001611188090095972</v>
       </c>
       <c r="V135">
-        <v>0.9998066761180564</v>
+        <v>-0.0001933238819435967</v>
       </c>
       <c r="W135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10579,7 +10579,7 @@
         <v>1.20783538022098</v>
       </c>
       <c r="K136">
-        <v>54.70676804264676</v>
+        <v>0.0470676804264677</v>
       </c>
       <c r="L136">
         <v>0.004537904355212371</v>
@@ -10609,13 +10609,13 @@
         <v>0.0625</v>
       </c>
       <c r="U136">
-        <v>1.000128874283137</v>
+        <v>0.0001288742831369039</v>
       </c>
       <c r="V136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10650,7 +10650,7 @@
         <v>1.344447844280017</v>
       </c>
       <c r="K137">
-        <v>57.34603341934863</v>
+        <v>0.0734603341934863</v>
       </c>
       <c r="L137">
         <v>0.004575626903993363</v>
@@ -10680,13 +10680,13 @@
         <v>0.09375</v>
       </c>
       <c r="U137">
-        <v>1.000128857676696</v>
+        <v>0.0001288576766960148</v>
       </c>
       <c r="V137">
-        <v>1.000064453754431</v>
+        <v>6.445375443142609E-05</v>
       </c>
       <c r="W137">
-        <v>1.000966183574879</v>
+        <v>0.0009661835748793202</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10721,7 +10721,7 @@
         <v>1.344447844280017</v>
       </c>
       <c r="K138">
-        <v>57.34603341934863</v>
+        <v>0.0734603341934863</v>
       </c>
       <c r="L138">
         <v>0.00492208302052899</v>
@@ -10751,13 +10751,13 @@
         <v>0.125</v>
       </c>
       <c r="U138">
-        <v>1.000128841074535</v>
+        <v>0.0001288410745345914</v>
       </c>
       <c r="V138">
-        <v>1.000128899200825</v>
+        <v>0.0001288992008248169</v>
       </c>
       <c r="W138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10792,7 +10792,7 @@
         <v>1.344447844280017</v>
       </c>
       <c r="K139">
-        <v>57.34603341934863</v>
+        <v>0.0734603341934863</v>
       </c>
       <c r="L139">
         <v>0.005415510352918532</v>
@@ -10822,13 +10822,13 @@
         <v>0.1875</v>
       </c>
       <c r="U139">
-        <v>1.000032206119163</v>
+        <v>3.220611916265881E-05</v>
       </c>
       <c r="V139">
-        <v>1.000193323881944</v>
+        <v>0.0001933238819435967</v>
       </c>
       <c r="W139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10863,7 +10863,7 @@
         <v>1.503785898292599</v>
       </c>
       <c r="K140">
-        <v>60.06048278002014</v>
+        <v>0.1006048278002014</v>
       </c>
       <c r="L140">
         <v>0.006298786395891522</v>
@@ -10893,13 +10893,13 @@
         <v>0.3125</v>
       </c>
       <c r="U140">
-        <v>1.000128820327848</v>
+        <v>0.0001288203278477784</v>
       </c>
       <c r="V140">
-        <v>1.000193286515044</v>
+        <v>0.0001932865150442442</v>
       </c>
       <c r="W140">
-        <v>1.000965250965251</v>
+        <v>0.0009652509652509078</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10934,7 +10934,7 @@
         <v>1.671510165674265</v>
       </c>
       <c r="K141">
-        <v>62.56798821697131</v>
+        <v>0.125679882169713</v>
       </c>
       <c r="L141">
         <v>0.007690896145547773</v>
@@ -10964,13 +10964,13 @@
         <v>0.4375</v>
       </c>
       <c r="U141">
-        <v>1.000161004669135</v>
+        <v>0.0001610046691351563</v>
       </c>
       <c r="V141">
-        <v>1.000193249162587</v>
+        <v>0.0001932491625871169</v>
       </c>
       <c r="W141">
-        <v>1.000964320154291</v>
+        <v>0.0009643201542912649</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11005,7 +11005,7 @@
         <v>1.671510165674265</v>
       </c>
       <c r="K142">
-        <v>62.56798821697131</v>
+        <v>0.125679882169713</v>
       </c>
       <c r="L142">
         <v>0.009274310352565264</v>
@@ -11035,13 +11035,13 @@
         <v>0.53125</v>
       </c>
       <c r="U142">
-        <v>1.000096587250483</v>
+        <v>9.658725048300454E-05</v>
       </c>
       <c r="V142">
-        <v>1.000257615766085</v>
+        <v>0.0002576157660849621</v>
       </c>
       <c r="W142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11076,7 +11076,7 @@
         <v>1.857354229255057</v>
       </c>
       <c r="K143">
-        <v>65.00258911683096</v>
+        <v>0.1500258911683097</v>
       </c>
       <c r="L143">
         <v>0.01119063730217035</v>
@@ -11106,13 +11106,13 @@
         <v>0.625</v>
       </c>
       <c r="U143">
-        <v>1.000160963203812</v>
+        <v>0.0001609632038115372</v>
       </c>
       <c r="V143">
-        <v>1.000321936771618</v>
+        <v>0.0003219367716180699</v>
       </c>
       <c r="W143">
-        <v>1.000963391136801</v>
+        <v>0.0009633911368014392</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11147,7 +11147,7 @@
         <v>1.857354229255057</v>
       </c>
       <c r="K144">
-        <v>65.00258911683098</v>
+        <v>0.1500258911683098</v>
       </c>
       <c r="L144">
         <v>0.01314537400278819</v>
@@ -11177,13 +11177,13 @@
         <v>0.71875</v>
       </c>
       <c r="U144">
-        <v>1.000096562379297</v>
+        <v>9.6562379297227E-05</v>
       </c>
       <c r="V144">
-        <v>1.000257466529351</v>
+        <v>0.0002574665293511025</v>
       </c>
       <c r="W144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11218,7 +11218,7 @@
         <v>1.857354229255057</v>
       </c>
       <c r="K145">
-        <v>65.00258911683098</v>
+        <v>0.1500258911683098</v>
       </c>
       <c r="L145">
         <v>0.01495052609351847</v>
@@ -11248,13 +11248,13 @@
         <v>0.78125</v>
       </c>
       <c r="U145">
-        <v>1.000096553055904</v>
+        <v>9.655305590405838E-05</v>
       </c>
       <c r="V145">
-        <v>1.0002574002574</v>
+        <v>0.0002574002574002865</v>
       </c>
       <c r="W145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11289,7 +11289,7 @@
         <v>1.526476209935773</v>
       </c>
       <c r="K146">
-        <v>60.41918003948189</v>
+        <v>0.1041918003948189</v>
       </c>
       <c r="L146">
         <v>0.01614336441926987</v>
@@ -11319,13 +11319,13 @@
         <v>0.8125</v>
       </c>
       <c r="U146">
-        <v>1.000032181244771</v>
+        <v>3.218124477055717E-05</v>
       </c>
       <c r="V146">
-        <v>1.000257334019557</v>
+        <v>0.0002573340195572982</v>
       </c>
       <c r="W146">
-        <v>0.9990375360923965</v>
+        <v>-0.0009624639076034613</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11360,7 +11360,7 @@
         <v>1.526476209935773</v>
       </c>
       <c r="K147">
-        <v>60.41918003948188</v>
+        <v>0.1041918003948188</v>
       </c>
       <c r="L147">
         <v>0.01683029850700291</v>
@@ -11390,13 +11390,13 @@
         <v>0.8125</v>
       </c>
       <c r="U147">
-        <v>1.000032180209171</v>
+        <v>3.218020917139519E-05</v>
       </c>
       <c r="V147">
-        <v>1.000321584769745</v>
+        <v>0.0003215847697453089</v>
       </c>
       <c r="W147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11431,7 +11431,7 @@
         <v>1.723866582944014</v>
       </c>
       <c r="K148">
-        <v>63.28748235094619</v>
+        <v>0.1328748235094619</v>
       </c>
       <c r="L148">
         <v>0.01745728748314809</v>
@@ -11461,13 +11461,13 @@
         <v>0.75</v>
       </c>
       <c r="U148">
-        <v>1.000096537520917</v>
+        <v>9.653752091653978E-05</v>
       </c>
       <c r="V148">
-        <v>1.000321481386228</v>
+        <v>0.0003214813862277843</v>
       </c>
       <c r="W148">
-        <v>1.000963391136801</v>
+        <v>0.0009633911368014392</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11502,7 +11502,7 @@
         <v>1.723866582944014</v>
       </c>
       <c r="K149">
-        <v>63.28748235094619</v>
+        <v>0.1328748235094619</v>
       </c>
       <c r="L149">
         <v>0.01794416519714935</v>
@@ -11532,13 +11532,13 @@
         <v>0.65625</v>
       </c>
       <c r="U149">
-        <v>1.000032176067441</v>
+        <v>3.217606744110313E-05</v>
       </c>
       <c r="V149">
-        <v>1.000257102455328</v>
+        <v>0.0002571024553283952</v>
       </c>
       <c r="W149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11573,7 +11573,7 @@
         <v>1.414495143594929</v>
       </c>
       <c r="K150">
-        <v>58.58347436925861</v>
+        <v>0.08583474369258615</v>
       </c>
       <c r="L150">
         <v>0.01789799219936838</v>
@@ -11603,13 +11603,13 @@
         <v>0.5625</v>
       </c>
       <c r="U150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V150">
-        <v>1.000192777277985</v>
+        <v>0.0001927772779848347</v>
       </c>
       <c r="W150">
-        <v>0.9990375360923965</v>
+        <v>-0.0009624639076034613</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11644,7 +11644,7 @@
         <v>1.603404279548534</v>
       </c>
       <c r="K151">
-        <v>61.58875485241909</v>
+        <v>0.1158875485241908</v>
       </c>
       <c r="L151">
         <v>0.01781821226064372</v>
@@ -11674,13 +11674,13 @@
         <v>0.4375</v>
       </c>
       <c r="U151">
-        <v>1.0001287001287</v>
+        <v>0.0001287001287002543</v>
       </c>
       <c r="V151">
-        <v>1.000256986829425</v>
+        <v>0.0002569868294248767</v>
       </c>
       <c r="W151">
-        <v>1.000963391136801</v>
+        <v>0.0009633911368014392</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11715,7 +11715,7 @@
         <v>1.337450036605166</v>
       </c>
       <c r="K152">
-        <v>57.21833689106928</v>
+        <v>0.07218336891069288</v>
       </c>
       <c r="L152">
         <v>0.01730666088746579</v>
@@ -11745,13 +11745,13 @@
         <v>0.28125</v>
       </c>
       <c r="U152">
-        <v>1.000096512675331</v>
+        <v>9.651267533117291E-05</v>
       </c>
       <c r="V152">
-        <v>1.000128460402081</v>
+        <v>0.000128460402081032</v>
       </c>
       <c r="W152">
-        <v>0.9990375360923965</v>
+        <v>-0.0009624639076034613</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11786,7 +11786,7 @@
         <v>1.337450036605166</v>
       </c>
       <c r="K153">
-        <v>57.21833689106928</v>
+        <v>0.07218336891069288</v>
       </c>
       <c r="L153">
         <v>0.01650319993902748</v>
@@ -11816,13 +11816,13 @@
         <v>0.15625</v>
       </c>
       <c r="U153">
-        <v>1.000128671148712</v>
+        <v>0.0001286711487116232</v>
       </c>
       <c r="V153">
-        <v>1.000128443902126</v>
+        <v>0.0001284439021258521</v>
       </c>
       <c r="W153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11857,7 +11857,7 @@
         <v>1.337450036605166</v>
       </c>
       <c r="K154">
-        <v>57.21833689106928</v>
+        <v>0.07218336891069288</v>
       </c>
       <c r="L154">
         <v>0.01551407952712421</v>
@@ -11887,13 +11887,13 @@
         <v>0.09375</v>
       </c>
       <c r="U154">
-        <v>1.000160818243222</v>
+        <v>0.000160818243221561</v>
       </c>
       <c r="V154">
-        <v>1.000128427406408</v>
+        <v>0.0001284274064083935</v>
       </c>
       <c r="W154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11928,7 +11928,7 @@
         <v>0.9643298940297942</v>
       </c>
       <c r="K155">
-        <v>49.09205408728396</v>
+        <v>-0.009079459127160461</v>
       </c>
       <c r="L155">
         <v>0.01371653247900427</v>
@@ -11958,13 +11958,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U155">
-        <v>1.000064316953949</v>
+        <v>6.431695394892856E-05</v>
       </c>
       <c r="V155">
-        <v>0.9999357945425362</v>
+        <v>-6.420545746377293E-05</v>
       </c>
       <c r="W155">
-        <v>0.9980732177263969</v>
+        <v>-0.0019267822736031</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11999,7 +11999,7 @@
         <v>1.111160816332176</v>
       </c>
       <c r="K156">
-        <v>52.63269419061361</v>
+        <v>0.02632694190613605</v>
       </c>
       <c r="L156">
         <v>0.01184544016963291</v>
@@ -12029,13 +12029,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U156">
-        <v>1.000064312817545</v>
+        <v>6.431281754459839E-05</v>
       </c>
       <c r="V156">
-        <v>0.9999357904199307</v>
+        <v>-6.420958006925215E-05</v>
       </c>
       <c r="W156">
-        <v>1.000965250965251</v>
+        <v>0.0009652509652509078</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12070,7 +12070,7 @@
         <v>1.111160816332176</v>
       </c>
       <c r="K157">
-        <v>52.63269419061361</v>
+        <v>0.02632694190613605</v>
       </c>
       <c r="L157">
         <v>0.01000599981437453</v>
@@ -12100,13 +12100,13 @@
         <v>-0.25</v>
       </c>
       <c r="U157">
-        <v>1.000096463022508</v>
+        <v>9.646302250798655E-05</v>
       </c>
       <c r="V157">
-        <v>0.9999357862967958</v>
+        <v>-6.421370320419673E-05</v>
       </c>
       <c r="W157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12141,7 +12141,7 @@
         <v>0.9556781520737546</v>
       </c>
       <c r="K158">
-        <v>48.86684197296862</v>
+        <v>-0.01133158027031378</v>
       </c>
       <c r="L158">
         <v>0.007915424825971169</v>
@@ -12171,13 +12171,13 @@
         <v>-0.3125</v>
       </c>
       <c r="U158">
-        <v>1.00006430247886</v>
+        <v>6.430247886046736E-05</v>
       </c>
       <c r="V158">
-        <v>0.9998073465193937</v>
+        <v>-0.0001926534806062641</v>
       </c>
       <c r="W158">
-        <v>0.9990356798457087</v>
+        <v>-0.0009643201542912649</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12212,7 +12212,7 @@
         <v>0.7382116609131091</v>
       </c>
       <c r="K159">
-        <v>42.46960698246123</v>
+        <v>-0.07530393017538772</v>
       </c>
       <c r="L159">
         <v>0.005074976615171258</v>
@@ -12242,13 +12242,13 @@
         <v>-0.46875</v>
       </c>
       <c r="U159">
-        <v>0.9999678508278412</v>
+        <v>-3.214917215876856E-05</v>
       </c>
       <c r="V159">
-        <v>0.9996788489947972</v>
+        <v>-0.0003211510052028022</v>
       </c>
       <c r="W159">
-        <v>0.9980694980694981</v>
+        <v>-0.001930501930501927</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12283,7 +12283,7 @@
         <v>0.7382116609131091</v>
       </c>
       <c r="K160">
-        <v>42.46960698246123</v>
+        <v>-0.07530393017538772</v>
       </c>
       <c r="L160">
         <v>0.001942919393366027</v>
@@ -12313,13 +12313,13 @@
         <v>-0.5625</v>
       </c>
       <c r="U160">
-        <v>0.9999678497942387</v>
+        <v>-3.215020576130545E-05</v>
       </c>
       <c r="V160">
-        <v>0.9996787458236958</v>
+        <v>-0.000321254176304242</v>
       </c>
       <c r="W160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12354,7 +12354,7 @@
         <v>0.8642792603900663</v>
       </c>
       <c r="K161">
-        <v>46.35996756243652</v>
+        <v>-0.03640032437563478</v>
       </c>
       <c r="L161">
         <v>-0.0008222386301611898</v>
@@ -12384,13 +12384,13 @@
         <v>-0.625</v>
       </c>
       <c r="U161">
-        <v>1.00003215123943</v>
+        <v>3.21512394303447E-05</v>
       </c>
       <c r="V161">
-        <v>0.9998071855517706</v>
+        <v>-0.0001928144482293837</v>
       </c>
       <c r="W161">
-        <v>1.000967117988395</v>
+        <v>0.0009671179883945502</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12425,7 +12425,7 @@
         <v>0.8642792603900664</v>
       </c>
       <c r="K162">
-        <v>46.35996756243653</v>
+        <v>-0.03640032437563467</v>
       </c>
       <c r="L162">
         <v>-0.003186081483857142</v>
@@ -12455,13 +12455,13 @@
         <v>-0.71875</v>
       </c>
       <c r="U162">
-        <v>1.000064300411523</v>
+        <v>6.43004115226109E-05</v>
       </c>
       <c r="V162">
-        <v>0.9998071483671894</v>
+        <v>-0.0001928516328105756</v>
       </c>
       <c r="W162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12496,7 +12496,7 @@
         <v>1.00396635122326</v>
       </c>
       <c r="K163">
-        <v>50.09896252052433</v>
+        <v>0.0009896252052432608</v>
       </c>
       <c r="L163">
         <v>-0.004793611920583549</v>
@@ -12526,13 +12526,13 @@
         <v>-0.65625</v>
       </c>
       <c r="U163">
-        <v>1.000064296277246</v>
+        <v>6.429627724569009E-05</v>
       </c>
       <c r="V163">
-        <v>0.9998071111682635</v>
+        <v>-0.0001928888317365152</v>
       </c>
       <c r="W163">
-        <v>1.000966183574879</v>
+        <v>0.0009661835748793202</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12567,7 +12567,7 @@
         <v>1.298044437187878</v>
       </c>
       <c r="K164">
-        <v>56.48474051164554</v>
+        <v>0.06484740511645537</v>
       </c>
       <c r="L164">
         <v>-0.005120874845263984</v>
@@ -12597,13 +12597,13 @@
         <v>-0.5625</v>
       </c>
       <c r="U164">
-        <v>1.00009643821525</v>
+        <v>9.643821524996099E-05</v>
       </c>
       <c r="V164">
-        <v>0.9999356913183278</v>
+        <v>-6.430868167217607E-05</v>
       </c>
       <c r="W164">
-        <v>1.001930501930502</v>
+        <v>0.001930501930502038</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12638,7 +12638,7 @@
         <v>1.124064109857182</v>
       </c>
       <c r="K165">
-        <v>52.92044174376459</v>
+        <v>0.0292044174376459</v>
       </c>
       <c r="L165">
         <v>-0.004984064160140613</v>
@@ -12668,13 +12668,13 @@
         <v>-0.5</v>
       </c>
       <c r="U165">
-        <v>1.000064285943878</v>
+        <v>6.428594387841713E-05</v>
       </c>
       <c r="V165">
-        <v>0.9999356871824555</v>
+        <v>-6.431281754448737E-05</v>
       </c>
       <c r="W165">
-        <v>0.9990366088631984</v>
+        <v>-0.0009633911368015502</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12709,7 +12709,7 @@
         <v>1.124064109857182</v>
       </c>
       <c r="K166">
-        <v>52.9204417437646</v>
+        <v>0.02920441743764601</v>
       </c>
       <c r="L166">
         <v>-0.00455662672731159</v>
@@ -12739,13 +12739,13 @@
         <v>-0.40625</v>
       </c>
       <c r="U166">
-        <v>1.000064281811462</v>
+        <v>6.428181146156398E-05</v>
       </c>
       <c r="V166">
-        <v>0.999871366092102</v>
+        <v>-0.0001286339078979681</v>
       </c>
       <c r="W166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12780,7 +12780,7 @@
         <v>0.978712890020545</v>
       </c>
       <c r="K167">
-        <v>49.4620970508957</v>
+        <v>-0.005379029491043019</v>
       </c>
       <c r="L167">
         <v>-0.004314908845725506</v>
@@ -12810,13 +12810,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V167">
-        <v>0.9998713495432908</v>
+        <v>-0.0001286504567091784</v>
       </c>
       <c r="W167">
-        <v>0.9990356798457087</v>
+        <v>-0.0009643201542912649</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12851,7 +12851,7 @@
         <v>0.9787128900205451</v>
       </c>
       <c r="K168">
-        <v>49.4620970508957</v>
+        <v>-0.005379029491043019</v>
       </c>
       <c r="L168">
         <v>-0.004185418473556286</v>
@@ -12881,13 +12881,13 @@
         <v>0</v>
       </c>
       <c r="U168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V168">
-        <v>0.9998713329902215</v>
+        <v>-0.0001286670097785381</v>
       </c>
       <c r="W168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12922,7 +12922,7 @@
         <v>0.9787128900205452</v>
       </c>
       <c r="K169">
-        <v>49.4620970508957</v>
+        <v>-0.005379029491043019</v>
       </c>
       <c r="L169">
         <v>-0.004116946821725261</v>
@@ -12952,13 +12952,13 @@
         <v>0.125</v>
       </c>
       <c r="U169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V169">
-        <v>0.9998713164328914</v>
+        <v>-0.0001286835671086006</v>
       </c>
       <c r="W169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12993,7 +12993,7 @@
         <v>1.280351394698947</v>
       </c>
       <c r="K170">
-        <v>56.14710950581279</v>
+        <v>0.06147109505812787</v>
       </c>
       <c r="L170">
         <v>-0.003372373524598434</v>
@@ -13023,13 +13023,13 @@
         <v>0.3125</v>
       </c>
       <c r="U170">
-        <v>1.000032138839788</v>
+        <v>3.213883978792076E-05</v>
       </c>
       <c r="V170">
-        <v>1.0001287001287</v>
+        <v>0.0001287001287002543</v>
       </c>
       <c r="W170">
-        <v>1.001930501930502</v>
+        <v>0.001930501930502038</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13064,7 +13064,7 @@
         <v>0.9717932297684679</v>
       </c>
       <c r="K171">
-        <v>49.28474320213473</v>
+        <v>-0.007152567978652657</v>
       </c>
       <c r="L171">
         <v>-0.002955767192488445</v>
@@ -13094,13 +13094,13 @@
         <v>0.3125</v>
       </c>
       <c r="U171">
-        <v>0.999935724386168</v>
+        <v>-6.427561383204328E-05</v>
       </c>
       <c r="V171">
-        <v>0.9999356582164456</v>
+        <v>-6.434178355441134E-05</v>
       </c>
       <c r="W171">
-        <v>0.9980732177263969</v>
+        <v>-0.0019267822736031</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13135,7 +13135,7 @@
         <v>1.098632654356373</v>
       </c>
       <c r="K172">
-        <v>52.34992660939564</v>
+        <v>0.02349926609395636</v>
       </c>
       <c r="L172">
         <v>-0.002402411012127442</v>
@@ -13165,13 +13165,13 @@
         <v>0.25</v>
       </c>
       <c r="U172">
-        <v>0.9999678601272737</v>
+        <v>-3.213987272632224E-05</v>
       </c>
       <c r="V172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W172">
-        <v>1.000965250965251</v>
+        <v>0.0009652509652509078</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13206,7 +13206,7 @@
         <v>0.4990072509762201</v>
       </c>
       <c r="K173">
-        <v>33.28918193365938</v>
+        <v>-0.1671081806634062</v>
       </c>
       <c r="L173">
         <v>-0.004954026275022729</v>
@@ -13236,13 +13236,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U173">
-        <v>0.9996464500369622</v>
+        <v>-0.0003535499630378247</v>
       </c>
       <c r="V173">
-        <v>0.9994852326105141</v>
+        <v>-0.0005147673894858595</v>
       </c>
       <c r="W173">
-        <v>0.9913211186113789</v>
+        <v>-0.008678881388621051</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/Aker 11.12.2020.xlsx
+++ b/data_clean/Aker 11.12.2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -956,13 +959,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W173"/>
+  <dimension ref="A1:X173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1032,10 +1035,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>522</v>
@@ -1092,7 +1098,7 @@
         <v>522</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1103,10 +1109,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>523</v>
@@ -1163,7 +1172,7 @@
         <v>522.5</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>522.5</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1174,10 +1183,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>521</v>
@@ -1234,21 +1246,24 @@
         <v>522</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="U4">
-        <v>-0.000956937799043045</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>-0.000956937799043045</v>
       </c>
       <c r="W4">
+        <v>-0.000956937799043045</v>
+      </c>
+      <c r="X4">
         <v>-0.003824091778202643</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>521</v>
@@ -1305,21 +1320,24 @@
         <v>521.75</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>521.6666666666666</v>
       </c>
       <c r="U5">
-        <v>-0.0004789272030650826</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>-0.0004789272030650826</v>
       </c>
       <c r="W5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+        <v>-0.0004789272030650826</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>522.5</v>
@@ -1376,21 +1394,24 @@
         <v>521.9</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>521.5</v>
       </c>
       <c r="U6">
-        <v>0.0002874940105415114</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0.0002874940105415114</v>
       </c>
       <c r="W6">
+        <v>0.0002874940105415114</v>
+      </c>
+      <c r="X6">
         <v>0.002879078694817627</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>523</v>
@@ -1447,21 +1468,24 @@
         <v>522.0833333333334</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>522.1666666666666</v>
       </c>
       <c r="U7">
-        <v>0.000351280577377544</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0.000351280577377544</v>
       </c>
       <c r="W7">
+        <v>0.000351280577377544</v>
+      </c>
+      <c r="X7">
         <v>0.000956937799043045</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>522.5</v>
@@ -1518,21 +1542,24 @@
         <v>522.1428571428571</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>522.6666666666666</v>
       </c>
       <c r="U8">
-        <v>0.0001140120852809456</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0.0001140120852809456</v>
       </c>
       <c r="W8">
+        <v>0.0001140120852809456</v>
+      </c>
+      <c r="X8">
         <v>-0.0009560229445506607</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>522.5</v>
@@ -1589,21 +1616,24 @@
         <v>522.1875</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>522.6666666666666</v>
       </c>
       <c r="U9">
-        <v>8.549931600554395E-05</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>8.549931600554395E-05</v>
       </c>
       <c r="W9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+        <v>8.549931600554395E-05</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>522</v>
@@ -1660,21 +1690,24 @@
         <v>522.1666666666666</v>
       </c>
       <c r="T10">
+        <v>522.3333333333334</v>
+      </c>
+      <c r="U10">
         <v>0.02083333333337123</v>
-      </c>
-      <c r="U10">
-        <v>-3.989626969880256E-05</v>
       </c>
       <c r="V10">
         <v>-3.989626969880256E-05</v>
       </c>
       <c r="W10">
+        <v>-3.989626969880256E-05</v>
+      </c>
+      <c r="X10">
         <v>-0.000956937799043045</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>521</v>
@@ -1731,21 +1764,24 @@
         <v>522.05</v>
       </c>
       <c r="T11">
+        <v>521.8333333333334</v>
+      </c>
+      <c r="U11">
         <v>-0.1124999999999545</v>
-      </c>
-      <c r="U11">
-        <v>-0.000223428024257899</v>
       </c>
       <c r="V11">
         <v>-0.000223428024257899</v>
       </c>
       <c r="W11">
+        <v>-0.000223428024257899</v>
+      </c>
+      <c r="X11">
         <v>-0.001915708812260553</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>521.5</v>
@@ -1802,21 +1838,24 @@
         <v>522</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>521.5</v>
       </c>
       <c r="U12">
-        <v>-9.577626664103445E-05</v>
+        <v>0</v>
       </c>
       <c r="V12">
         <v>-9.577626664103445E-05</v>
       </c>
       <c r="W12">
+        <v>-9.577626664103445E-05</v>
+      </c>
+      <c r="X12">
         <v>0.0009596928982724684</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>522</v>
@@ -1873,21 +1912,24 @@
         <v>522</v>
       </c>
       <c r="T13">
+        <v>521.5</v>
+      </c>
+      <c r="U13">
         <v>0.125</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
       <c r="V13">
         <v>0</v>
       </c>
       <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
         <v>0.0009587727708533222</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>522</v>
@@ -1944,21 +1986,24 @@
         <v>522</v>
       </c>
       <c r="T14">
+        <v>521.8333333333334</v>
+      </c>
+      <c r="U14">
         <v>0.0625</v>
       </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>523</v>
@@ -2015,21 +2060,24 @@
         <v>522.0714285714286</v>
       </c>
       <c r="T15">
+        <v>522.3333333333334</v>
+      </c>
+      <c r="U15">
         <v>-0.008928571428555188</v>
-      </c>
-      <c r="U15">
-        <v>0.000136836343732849</v>
       </c>
       <c r="V15">
         <v>0.000136836343732849</v>
       </c>
       <c r="W15">
+        <v>0.000136836343732849</v>
+      </c>
+      <c r="X15">
         <v>0.001915708812260553</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>523.5</v>
@@ -2086,21 +2134,24 @@
         <v>522.1666666666666</v>
       </c>
       <c r="T16">
+        <v>522.8333333333334</v>
+      </c>
+      <c r="U16">
         <v>0.02083333333337123</v>
-      </c>
-      <c r="U16">
-        <v>0.0001824234961462778</v>
       </c>
       <c r="V16">
         <v>0.0001824234961462778</v>
       </c>
       <c r="W16">
+        <v>0.0001824234961462778</v>
+      </c>
+      <c r="X16">
         <v>0.0009560229445506607</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>521</v>
@@ -2157,21 +2208,24 @@
         <v>522.1</v>
       </c>
       <c r="T17">
+        <v>522.5</v>
+      </c>
+      <c r="U17">
         <v>-0.09375</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-0.0001396425151610758</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-0.0001276731567186884</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-0.004775549188156591</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>521</v>
@@ -2228,21 +2282,24 @@
         <v>521.9666666666667</v>
       </c>
       <c r="T18">
+        <v>521.8333333333334</v>
+      </c>
+      <c r="U18">
         <v>-0.15625</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-0.000123231192279416</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-0.0002553789184702726</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>519</v>
@@ -2299,21 +2356,24 @@
         <v>521.8333333333334</v>
       </c>
       <c r="T19">
+        <v>520.3333333333334</v>
+      </c>
+      <c r="U19">
         <v>-0.15625</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-0.0003223968799493937</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-0.0002554441535219665</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-0.003838771593090207</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>518</v>
@@ -2370,21 +2430,24 @@
         <v>521.6333333333333</v>
       </c>
       <c r="T20">
+        <v>519.3333333333334</v>
+      </c>
+      <c r="U20">
         <v>-0.40625</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-0.0003894070087658852</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-0.0003832641328649355</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>-0.0019267822736031</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>518</v>
@@ -2441,21 +2504,24 @@
         <v>521.3333333333334</v>
       </c>
       <c r="T21">
+        <v>518.3333333333334</v>
+      </c>
+      <c r="U21">
         <v>-0.71875</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-0.0003506028350904744</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-0.0005751166208702863</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>519.5</v>
@@ -2512,21 +2578,24 @@
         <v>521.1</v>
       </c>
       <c r="T22">
+        <v>518.5</v>
+      </c>
+      <c r="U22">
         <v>-0.84375</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>-0.0001803492383097849</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>-0.0004475703324808844</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.002895752895752945</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>519.5</v>
@@ -2583,21 +2652,24 @@
         <v>520.9</v>
       </c>
       <c r="T23">
+        <v>519</v>
+      </c>
+      <c r="U23">
         <v>-1.0625</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>-0.0001639834272952889</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>-0.0003838034926119116</v>
       </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>520.5</v>
@@ -2654,21 +2726,24 @@
         <v>520.7666666666667</v>
       </c>
       <c r="T24">
+        <v>519.8333333333334</v>
+      </c>
+      <c r="U24">
         <v>-1.3125</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-6.634429657037533E-05</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>-0.0002559672361936993</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.001924927815206923</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>516.5</v>
@@ -2725,21 +2800,24 @@
         <v>520.4</v>
       </c>
       <c r="T25">
+        <v>518.8333333333334</v>
+      </c>
+      <c r="U25">
         <v>-1.5</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-0.0003805571774125882</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>-0.0007040901235357833</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>-0.007684918347742542</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>516</v>
@@ -2796,21 +2874,24 @@
         <v>520.0666666666667</v>
       </c>
       <c r="T26">
+        <v>517.6666666666666</v>
+      </c>
+      <c r="U26">
         <v>-1.75</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-0.0003886290032385498</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>-0.0006405329233921675</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-0.0009680542110358514</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>516.5</v>
@@ -2867,21 +2948,24 @@
         <v>519.7333333333333</v>
       </c>
       <c r="T27">
+        <v>516.3333333333334</v>
+      </c>
+      <c r="U27">
         <v>-1.78125</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-0.0003219527467885896</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>-0.0006409434687860704</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.0009689922480620172</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>517</v>
@@ -2938,21 +3022,24 @@
         <v>519.4</v>
       </c>
       <c r="T28">
+        <v>516.5</v>
+      </c>
+      <c r="U28">
         <v>-1.625</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-0.0002626352160995937</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-0.0006413545407901733</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.0009680542110357404</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>516</v>
@@ -3009,21 +3096,24 @@
         <v>519</v>
       </c>
       <c r="T29">
+        <v>516.5</v>
+      </c>
+      <c r="U29">
         <v>-1.5</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-0.0003125476444579833</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-0.0007701193685020202</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-0.001934235976789211</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>516.5</v>
@@ -3080,21 +3170,24 @@
         <v>518.5666666666667</v>
       </c>
       <c r="T30">
+        <v>516.5</v>
+      </c>
+      <c r="U30">
         <v>-1.53125</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-0.00025795214396096</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>-0.0008349389852279065</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.0009689922480620172</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>515</v>
@@ -3151,21 +3244,24 @@
         <v>518</v>
       </c>
       <c r="T31">
+        <v>515.8333333333334</v>
+      </c>
+      <c r="U31">
         <v>-1.59375</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-0.0003369235017949279</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-0.001092755672687629</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-0.002904162633107443</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>515.5</v>
@@ -3222,21 +3318,24 @@
         <v>517.6333333333333</v>
       </c>
       <c r="T32">
+        <v>515.6666666666666</v>
+      </c>
+      <c r="U32">
         <v>-1.71875</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-0.0004165999038616697</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-0.0007078507078507323</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0.000970873786407811</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>515</v>
@@ -3293,21 +3392,24 @@
         <v>517.2333333333333</v>
       </c>
       <c r="T33">
+        <v>515.1666666666666</v>
+      </c>
+      <c r="U33">
         <v>-1.53125</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>-0.0005129520389842712</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>-0.0007727477622512247</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-0.0009699321047527132</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>515</v>
@@ -3364,21 +3466,24 @@
         <v>516.9666666666667</v>
       </c>
       <c r="T34">
+        <v>515.1666666666666</v>
+      </c>
+      <c r="U34">
         <v>-1.28125</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>-0.0003849114703619039</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-0.0005155635754333643</v>
       </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>514.5</v>
@@ -3435,21 +3540,24 @@
         <v>516.7333333333333</v>
       </c>
       <c r="T35">
+        <v>514.8333333333334</v>
+      </c>
+      <c r="U35">
         <v>-1.25</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>-0.0004171479912720155</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>-0.0004513508285511891</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>-0.000970873786407811</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>513.5</v>
@@ -3506,21 +3614,24 @@
         <v>516.4333333333333</v>
       </c>
       <c r="T36">
+        <v>514.3333333333334</v>
+      </c>
+      <c r="U36">
         <v>-1.40625</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>-0.0005778305672369255</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>-0.0005805702490002673</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>-0.001943634596695776</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>513.5</v>
@@ -3577,21 +3688,24 @@
         <v>516.0333333333333</v>
       </c>
       <c r="T37">
+        <v>513.8333333333334</v>
+      </c>
+      <c r="U37">
         <v>-1.4375</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>-0.0006102849066905724</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>-0.0007745433421544323</v>
       </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>513</v>
@@ -3648,21 +3762,24 @@
         <v>515.6</v>
       </c>
       <c r="T38">
+        <v>513.3333333333334</v>
+      </c>
+      <c r="U38">
         <v>-1.46875</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>-0.0006106575817961257</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>-0.000839739034945941</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>-0.0009737098344693162</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>513.5</v>
@@ -3719,21 +3836,24 @@
         <v>515.1333333333333</v>
       </c>
       <c r="T39">
+        <v>513.3333333333334</v>
+      </c>
+      <c r="U39">
         <v>-1.28125</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>-0.0005788712011576269</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>-0.0009050943884147955</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>0.0009746588693957392</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>513</v>
@@ -3790,21 +3910,24 @@
         <v>514.9</v>
       </c>
       <c r="T40">
+        <v>513.1666666666666</v>
+      </c>
+      <c r="U40">
         <v>-1.125</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>-0.0005792064871127378</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>-0.0004529571631940454</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>-0.0009737098344693162</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>514</v>
@@ -3861,21 +3984,24 @@
         <v>514.7666666666667</v>
       </c>
       <c r="T41">
+        <v>513.5</v>
+      </c>
+      <c r="U41">
         <v>-1.09375</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>-0.0004507550146495287</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>-0.00025894995792064</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>0.001949317738791478</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>515</v>
@@ -3932,21 +4058,24 @@
         <v>514.6666666666666</v>
       </c>
       <c r="T42">
+        <v>514</v>
+      </c>
+      <c r="U42">
         <v>-1.03125</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>-0.0004187469801898436</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>-0.0001942627727773427</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>0.001945525291828787</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>516</v>
@@ -4003,21 +4132,24 @@
         <v>514.6</v>
       </c>
       <c r="T43">
+        <v>515</v>
+      </c>
+      <c r="U43">
         <v>-0.8125</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>-0.0003866976024750057</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>-0.0001295336787563439</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>0.001941747572815622</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>517</v>
@@ -4074,21 +4206,24 @@
         <v>514.6666666666666</v>
       </c>
       <c r="T44">
+        <v>516</v>
+      </c>
+      <c r="U44">
         <v>-0.375</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>-0.0003223726627981094</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>0.0001295504599039266</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>0.001937984496124034</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>517</v>
@@ -4145,21 +4280,24 @@
         <v>514.7</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>516.6666666666666</v>
       </c>
       <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
         <v>-0.0003869719445340758</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>6.476683937850503E-05</v>
       </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>516.5</v>
@@ -4216,21 +4354,24 @@
         <v>514.8</v>
       </c>
       <c r="T46">
+        <v>516.8333333333334</v>
+      </c>
+      <c r="U46">
         <v>0.4375</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>-0.0004516420414220068</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>0.0001942879347189841</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>-0.0009671179883945502</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>517</v>
@@ -4287,21 +4428,24 @@
         <v>514.9</v>
       </c>
       <c r="T47">
+        <v>516.8333333333334</v>
+      </c>
+      <c r="U47">
         <v>0.75</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>-0.000258197779499092</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>0.0001942501942502339</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>0.0009680542110357404</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>516</v>
@@ -4358,21 +4502,24 @@
         <v>514.9666666666667</v>
       </c>
       <c r="T48">
+        <v>516.5</v>
+      </c>
+      <c r="U48">
         <v>1.09375</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>-0.0003228305785123453</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>0.000129474978960431</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>-0.001934235976789211</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>516.5</v>
@@ -4429,21 +4576,24 @@
         <v>515.0666666666667</v>
       </c>
       <c r="T49">
+        <v>516.5</v>
+      </c>
+      <c r="U49">
         <v>1.3125</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>-0.0001614674158755269</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>0.0001941873260404847</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>0.0009689922480620172</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>515</v>
@@ -4500,21 +4650,24 @@
         <v>515.1</v>
       </c>
       <c r="T50">
+        <v>515.8333333333334</v>
+      </c>
+      <c r="U50">
         <v>1.3125</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>-0.0001937921901747908</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>6.471654154793782E-05</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>-0.002904162633107443</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>515.5</v>
@@ -4571,21 +4724,24 @@
         <v>515.2333333333333</v>
       </c>
       <c r="T51">
+        <v>515.6666666666666</v>
+      </c>
+      <c r="U51">
         <v>1.1875</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>-0.0001615247940557341</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>0.0002588494143531683</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>0.000970873786407811</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>515.5</v>
@@ -4642,21 +4798,24 @@
         <v>515.3666666666667</v>
       </c>
       <c r="T52">
+        <v>515.3333333333334</v>
+      </c>
+      <c r="U52">
         <v>0.875</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>-0.0002584814216477493</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>0.0002587824286730545</v>
       </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="X52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>515.5</v>
@@ -4713,21 +4872,24 @@
         <v>515.5333333333333</v>
       </c>
       <c r="T53">
+        <v>515.5</v>
+      </c>
+      <c r="U53">
         <v>0.5625</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>-0.0002585482515674586</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>0.0003233943470666301</v>
       </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="X53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>515.5</v>
@@ -4784,21 +4946,24 @@
         <v>515.6666666666666</v>
       </c>
       <c r="T54">
+        <v>515.5</v>
+      </c>
+      <c r="U54">
         <v>0.28125</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>-0.0003232688950670637</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>0.0002586318375792374</v>
       </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="X54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>516</v>
@@ -4855,21 +5020,24 @@
         <v>515.8666666666667</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>515.6666666666666</v>
       </c>
       <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
         <v>-3.233734316387959E-05</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>0.0003878474466709747</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>0.0009699321047527132</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>514.5</v>
@@ -4926,21 +5094,24 @@
         <v>515.9</v>
       </c>
       <c r="T56">
+        <v>515.3333333333334</v>
+      </c>
+      <c r="U56">
         <v>-0.28125</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>-9.701516670435062E-05</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>6.46161798913969E-05</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>-0.002906976744186052</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>514</v>
@@ -4997,21 +5168,24 @@
         <v>515.8333333333334</v>
       </c>
       <c r="T57">
+        <v>514.8333333333334</v>
+      </c>
+      <c r="U57">
         <v>-0.59375</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>-0.0001617076326003719</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>-0.0001292240098209607</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>-0.0009718172983479434</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>514</v>
@@ -5068,21 +5242,24 @@
         <v>515.7</v>
       </c>
       <c r="T58">
+        <v>514.1666666666666</v>
+      </c>
+      <c r="U58">
         <v>-0.65625</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>-0.0001940805434255122</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>-0.0002584814216477493</v>
       </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="X58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>513.5</v>
@@ -5139,21 +5316,24 @@
         <v>515.4666666666667</v>
       </c>
       <c r="T59">
+        <v>513.8333333333334</v>
+      </c>
+      <c r="U59">
         <v>-0.75</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>-0.0001617651816621102</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>-0.0004524594402430804</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>-0.0009727626459143934</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>513.5</v>
@@ -5210,21 +5390,24 @@
         <v>515.2333333333333</v>
       </c>
       <c r="T60">
+        <v>513.6666666666666</v>
+      </c>
+      <c r="U60">
         <v>-0.78125</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>-0.0001941496246441465</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>-0.0004526642524573798</v>
       </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="X60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>514</v>
@@ -5281,21 +5464,24 @@
         <v>515.0666666666667</v>
       </c>
       <c r="T61">
+        <v>513.6666666666666</v>
+      </c>
+      <c r="U61">
         <v>-0.78125</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>-6.472910868038362E-05</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>-0.0003234780358413181</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>0.0009737098344693162</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>514</v>
@@ -5352,21 +5538,24 @@
         <v>514.8666666666667</v>
       </c>
       <c r="T62">
+        <v>513.8333333333334</v>
+      </c>
+      <c r="U62">
         <v>-0.8125</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>-9.709994821327506E-05</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>-0.000388299249288182</v>
       </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23">
+      <c r="X62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>514</v>
@@ -5423,21 +5612,24 @@
         <v>514.7333333333333</v>
       </c>
       <c r="T63">
+        <v>514</v>
+      </c>
+      <c r="U63">
         <v>-0.875</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>-6.473958501918009E-05</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>-0.0002589667227761439</v>
       </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="X63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>514</v>
@@ -5494,21 +5686,24 @@
         <v>514.5666666666667</v>
       </c>
       <c r="T64">
+        <v>514</v>
+      </c>
+      <c r="U64">
         <v>-0.8125</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>-6.474377650445007E-05</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>-0.0003237922548892103</v>
       </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="X64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>513</v>
@@ -5565,21 +5760,24 @@
         <v>514.4333333333333</v>
       </c>
       <c r="T65">
+        <v>513.6666666666666</v>
+      </c>
+      <c r="U65">
         <v>-0.71875</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>-9.712195279887315E-05</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>-0.000259117704217382</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>-0.001945525291828787</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>514</v>
@@ -5636,21 +5834,24 @@
         <v>514.3333333333334</v>
       </c>
       <c r="T66">
+        <v>513.6666666666666</v>
+      </c>
+      <c r="U66">
         <v>-0.65625</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>3.237712879622379E-05</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>-0.0001943886477028256</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>0.001949317738791478</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>514</v>
@@ -5707,21 +5908,24 @@
         <v>514.2333333333333</v>
       </c>
       <c r="T67">
+        <v>513.6666666666666</v>
+      </c>
+      <c r="U67">
         <v>-0.5</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>3.237608055162156E-05</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>-0.0001944264419961872</v>
       </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="X67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>515</v>
@@ -5778,21 +5982,24 @@
         <v>514.2</v>
       </c>
       <c r="T68">
+        <v>514.3333333333334</v>
+      </c>
+      <c r="U68">
         <v>-0.28125</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>0.000129500129500304</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>-6.482141699615251E-05</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>0.001945525291828787</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>515</v>
@@ -5849,21 +6056,24 @@
         <v>514.1666666666666</v>
       </c>
       <c r="T69">
+        <v>514.6666666666666</v>
+      </c>
+      <c r="U69">
         <v>-0.125</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>9.711252104094292E-05</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>-6.482561908482953E-05</v>
       </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="X69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>514.5</v>
@@ -5920,21 +6130,24 @@
         <v>514.0666666666667</v>
       </c>
       <c r="T70">
-        <v>0</v>
+        <v>514.8333333333334</v>
       </c>
       <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
         <v>9.710309111521376E-05</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>-0.0001944894651537687</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>-0.000970873786407811</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>514</v>
@@ -5991,21 +6204,24 @@
         <v>514.0333333333333</v>
       </c>
       <c r="T71">
+        <v>514.5</v>
+      </c>
+      <c r="U71">
         <v>0.125</v>
       </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
       <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
         <v>-6.484243288829017E-05</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>-0.0009718172983479434</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>515</v>
@@ -6062,21 +6278,24 @@
         <v>514.1</v>
       </c>
       <c r="T72">
+        <v>514.5</v>
+      </c>
+      <c r="U72">
         <v>0.21875</v>
       </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
       <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
         <v>0.0001296932754037972</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>0.001945525291828787</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>514.5</v>
@@ -6133,21 +6352,24 @@
         <v>514.1333333333333</v>
       </c>
       <c r="T73">
+        <v>514.5</v>
+      </c>
+      <c r="U73">
         <v>0.375</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>-9.709366302035338E-05</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>6.48382286194682E-05</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>-0.000970873786407811</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>515</v>
@@ -6204,21 +6426,24 @@
         <v>514.2333333333333</v>
       </c>
       <c r="T74">
+        <v>514.8333333333334</v>
+      </c>
+      <c r="U74">
         <v>0.4375</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>-0.0001294707881532853</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>0.0001945020746887405</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>0.0009718172983479434</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>515</v>
@@ -6275,21 +6500,24 @@
         <v>514.3333333333334</v>
       </c>
       <c r="T75">
+        <v>514.8333333333334</v>
+      </c>
+      <c r="U75">
         <v>0.46875</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>-0.0001294875530091222</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>0.0001944642509885686</v>
       </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="X75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>515</v>
@@ -6346,21 +6574,24 @@
         <v>514.4</v>
       </c>
       <c r="T76">
+        <v>515</v>
+      </c>
+      <c r="U76">
         <v>0.375</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>-9.712824165497569E-05</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>0.0001296176279972361</v>
       </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="X76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>514.5</v>
@@ -6417,21 +6648,24 @@
         <v>514.4333333333333</v>
       </c>
       <c r="T77">
+        <v>514.8333333333334</v>
+      </c>
+      <c r="U77">
         <v>0.28125</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>-0.0001618961274446606</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>6.480041472256559E-05</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>-0.000970873786407811</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>514.5</v>
@@ -6488,21 +6722,24 @@
         <v>514.4666666666667</v>
       </c>
       <c r="T78">
+        <v>514.6666666666666</v>
+      </c>
+      <c r="U78">
         <v>0.25</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>-9.715340522675753E-05</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>6.479621590105289E-05</v>
       </c>
-      <c r="W78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23">
+      <c r="X78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>513.5</v>
@@ -6559,21 +6796,24 @@
         <v>514.4333333333333</v>
       </c>
       <c r="T79">
+        <v>514.1666666666666</v>
+      </c>
+      <c r="U79">
         <v>0.21875</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>-0.0001943256898562229</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>-6.479201762354947E-05</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>-0.001943634596695776</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>513.5</v>
@@ -6630,21 +6870,24 @@
         <v>514.4666666666667</v>
       </c>
       <c r="T80">
+        <v>513.8333333333334</v>
+      </c>
+      <c r="U80">
         <v>0.0625</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>-9.718172983474993E-05</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>6.479621590105289E-05</v>
       </c>
-      <c r="W80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23">
+      <c r="X80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>514</v>
@@ -6701,21 +6944,24 @@
         <v>514.4666666666667</v>
       </c>
       <c r="T81">
+        <v>513.6666666666666</v>
+      </c>
+      <c r="U81">
         <v>-0.0625</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>-9.719117504147778E-05</v>
       </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
       <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
         <v>0.0009737098344693162</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>513</v>
@@ -6772,21 +7018,24 @@
         <v>514.4</v>
       </c>
       <c r="T82">
+        <v>513.5</v>
+      </c>
+      <c r="U82">
         <v>-0.25</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>-0.000162001036806525</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>-0.0001295840352469879</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>-0.001945525291828787</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>513.5</v>
@@ -6843,21 +7092,24 @@
         <v>514.3</v>
       </c>
       <c r="T83">
+        <v>513.5</v>
+      </c>
+      <c r="U83">
         <v>-0.40625</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>-0.0001296218283159956</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>-0.0001944012441680298</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>0.0009746588693957392</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>512</v>
@@ -6914,21 +7166,24 @@
         <v>514.1</v>
       </c>
       <c r="T84">
+        <v>512.8333333333334</v>
+      </c>
+      <c r="U84">
         <v>-0.59375</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>-0.0002268676065467767</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>-0.0003888780867197239</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>-0.002921129503407949</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>512.5</v>
@@ -6985,21 +7240,24 @@
         <v>513.9666666666667</v>
       </c>
       <c r="T85">
+        <v>512.6666666666666</v>
+      </c>
+      <c r="U85">
         <v>-0.6875</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>-0.0002269190871369009</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>-0.0002593529144783169</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>0.0009765625</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>513</v>
@@ -7056,21 +7314,24 @@
         <v>513.9</v>
       </c>
       <c r="T86">
+        <v>512.5</v>
+      </c>
+      <c r="U86">
         <v>-0.78125</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>-9.727311046969778E-05</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>-0.0001297100979312793</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>0.0009756097560975618</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>513.5</v>
@@ -7127,21 +7388,24 @@
         <v>513.8</v>
       </c>
       <c r="T87">
+        <v>513</v>
+      </c>
+      <c r="U87">
         <v>-0.75</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>-3.242752448273656E-05</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>-0.0001945903872349053</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>0.0009746588693957392</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>513.5</v>
@@ -7198,21 +7462,24 @@
         <v>513.7333333333333</v>
       </c>
       <c r="T88">
+        <v>513.3333333333334</v>
+      </c>
+      <c r="U88">
         <v>-0.65625</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>-3.242857606144955E-05</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>-0.0001297521733487628</v>
       </c>
-      <c r="W88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23">
+      <c r="X88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>514</v>
@@ -7269,21 +7536,24 @@
         <v>513.6666666666666</v>
       </c>
       <c r="T89">
+        <v>513.6666666666666</v>
+      </c>
+      <c r="U89">
         <v>-0.625</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>3.24296277081082E-05</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>-0.0001297690111602412</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>0.0009737098344693162</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>514</v>
@@ -7340,21 +7610,24 @@
         <v>513.6</v>
       </c>
       <c r="T90">
+        <v>513.8333333333334</v>
+      </c>
+      <c r="U90">
         <v>-0.4375</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>3.242857606111649E-05</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>-0.0001297858533418905</v>
       </c>
-      <c r="W90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23">
+      <c r="X90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>515</v>
@@ -7411,21 +7684,24 @@
         <v>513.6</v>
       </c>
       <c r="T91">
+        <v>514.3333333333334</v>
+      </c>
+      <c r="U91">
         <v>-0.25</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>6.485504896547312E-05</v>
       </c>
-      <c r="V91">
-        <v>0</v>
-      </c>
       <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
         <v>0.001945525291828787</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>515.5</v>
@@ -7482,21 +7758,24 @@
         <v>513.6666666666666</v>
       </c>
       <c r="T92">
+        <v>514.8333333333334</v>
+      </c>
+      <c r="U92">
         <v>0.15625</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>9.727626459143934E-05</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>0.0001298026998959312</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>0.000970873786407811</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>515.5</v>
@@ -7553,21 +7832,24 @@
         <v>513.7333333333333</v>
       </c>
       <c r="T93">
+        <v>515.3333333333334</v>
+      </c>
+      <c r="U93">
         <v>0.46875</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>9.7266802840279E-05</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>0.0001297858533420015</v>
       </c>
-      <c r="W93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23">
+      <c r="X93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>515</v>
@@ -7624,21 +7906,24 @@
         <v>513.8333333333334</v>
       </c>
       <c r="T94">
+        <v>515.3333333333334</v>
+      </c>
+      <c r="U94">
         <v>0.6875</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>6.48382286194682E-05</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>0.0001946535167403063</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>-0.0009699321047527132</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>514.5</v>
@@ -7695,21 +7980,24 @@
         <v>513.9</v>
       </c>
       <c r="T95">
+        <v>515</v>
+      </c>
+      <c r="U95">
         <v>0.75</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>9.725103734425922E-05</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>0.0001297437560816572</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>-0.000970873786407811</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>514.5</v>
@@ -7766,21 +8054,24 @@
         <v>513.9333333333333</v>
       </c>
       <c r="T96">
+        <v>514.6666666666666</v>
+      </c>
+      <c r="U96">
         <v>0.8125</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>3.241386016683556E-05</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>6.48634624116351E-05</v>
       </c>
-      <c r="W96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23">
+      <c r="X96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>514.5</v>
@@ -7837,21 +8128,24 @@
         <v>514.0333333333333</v>
       </c>
       <c r="T97">
+        <v>514.5</v>
+      </c>
+      <c r="U97">
         <v>0.84375</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>3.241280954235926E-05</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>0.0001945777662473169</v>
       </c>
-      <c r="W97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23">
+      <c r="X97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>514</v>
@@ -7908,21 +8202,24 @@
         <v>514.0666666666667</v>
       </c>
       <c r="T98">
+        <v>514.3333333333334</v>
+      </c>
+      <c r="U98">
         <v>0.78125</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>-6.482351797243435E-05</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>6.48466377020096E-05</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>-0.0009718172983479434</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>514.5</v>
@@ -7979,21 +8276,24 @@
         <v>514.2333333333333</v>
       </c>
       <c r="T99">
+        <v>514.3333333333334</v>
+      </c>
+      <c r="U99">
         <v>0.65625</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>-3.241386016661352E-05</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>0.0003242121644402296</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>0.0009727626459143934</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>513.5</v>
@@ -8050,21 +8350,24 @@
         <v>514.3</v>
       </c>
       <c r="T100">
+        <v>514</v>
+      </c>
+      <c r="U100">
         <v>0.3125</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>-6.482982171795992E-05</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>0.000129642833992305</v>
       </c>
-      <c r="W100">
+      <c r="X100">
         <v>-0.001943634596695776</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>513.5</v>
@@ -8121,21 +8424,24 @@
         <v>514.3333333333334</v>
       </c>
       <c r="T101">
-        <v>0</v>
+        <v>513.8333333333334</v>
       </c>
       <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
         <v>-3.24170124480494E-05</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>6.481301445337984E-05</v>
       </c>
-      <c r="W101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23">
+      <c r="X101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>514.5</v>
@@ -8192,21 +8498,24 @@
         <v>514.4</v>
       </c>
       <c r="T102">
+        <v>513.8333333333334</v>
+      </c>
+      <c r="U102">
         <v>-0.15625</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>-3.241806334486341E-05</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>0.0001296176279972361</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>0.001947419668938632</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>514</v>
@@ -8263,21 +8572,24 @@
         <v>514.4333333333333</v>
       </c>
       <c r="T103">
+        <v>514</v>
+      </c>
+      <c r="U103">
         <v>-0.25</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>-3.24191143097341E-05</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>6.480041472256559E-05</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>-0.0009718172983479434</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>515</v>
@@ -8334,21 +8646,24 @@
         <v>514.5</v>
       </c>
       <c r="T104">
+        <v>514.5</v>
+      </c>
+      <c r="U104">
         <v>-0.28125</v>
       </c>
-      <c r="U104">
-        <v>0</v>
-      </c>
       <c r="V104">
+        <v>0</v>
+      </c>
+      <c r="W104">
         <v>0.0001295924318021058</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>0.001945525291828787</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>515</v>
@@ -8405,21 +8720,24 @@
         <v>514.5666666666667</v>
       </c>
       <c r="T105">
+        <v>514.6666666666666</v>
+      </c>
+      <c r="U105">
         <v>-0.28125</v>
       </c>
-      <c r="U105">
-        <v>0</v>
-      </c>
       <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
         <v>0.0001295756397798886</v>
       </c>
-      <c r="W105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23">
+      <c r="X105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>515.5</v>
@@ -8476,21 +8794,24 @@
         <v>514.6</v>
       </c>
       <c r="T106">
+        <v>515.1666666666666</v>
+      </c>
+      <c r="U106">
         <v>-0.1875</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>3.242016534277248E-05</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>6.477942605420672E-05</v>
       </c>
-      <c r="W106">
+      <c r="X106">
         <v>0.000970873786407811</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>516</v>
@@ -8547,21 +8868,24 @@
         <v>514.6333333333333</v>
       </c>
       <c r="T107">
+        <v>515.5</v>
+      </c>
+      <c r="U107">
         <v>-0.0625</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>9.72573429292023E-05</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>6.47752299520743E-05</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>0.0009699321047527132</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>516</v>
@@ -8618,21 +8942,24 @@
         <v>514.6666666666666</v>
       </c>
       <c r="T108">
+        <v>515.8333333333334</v>
+      </c>
+      <c r="U108">
         <v>0.21875</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>9.724788485865332E-05</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>6.477103439328502E-05</v>
       </c>
-      <c r="W108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23">
+      <c r="X108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>517.5</v>
@@ -8689,21 +9016,24 @@
         <v>514.8333333333334</v>
       </c>
       <c r="T109">
+        <v>516.5</v>
+      </c>
+      <c r="U109">
         <v>0.59375</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>0.000259302476338652</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>0.0003238341968914149</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>0.002906976744186052</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>516.5</v>
@@ -8760,21 +9090,24 @@
         <v>514.9666666666667</v>
       </c>
       <c r="T110">
+        <v>516.6666666666666</v>
+      </c>
+      <c r="U110">
         <v>0.75</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>0.0001944264419959651</v>
       </c>
-      <c r="V110">
+      <c r="W110">
         <v>0.0002589834898025778</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>-0.001932367149758418</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>516.5</v>
@@ -8831,21 +9164,24 @@
         <v>515.1</v>
       </c>
       <c r="T111">
+        <v>516.8333333333334</v>
+      </c>
+      <c r="U111">
         <v>0.9375</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>0.0001619905397525212</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>0.0002589164347206463</v>
       </c>
-      <c r="W111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23">
+      <c r="X111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>517.5</v>
@@ -8902,21 +9238,24 @@
         <v>515.3</v>
       </c>
       <c r="T112">
+        <v>516.8333333333334</v>
+      </c>
+      <c r="U112">
         <v>1.0625</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>0.0002915357455215428</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>0.0003882741215297525</v>
       </c>
-      <c r="W112">
+      <c r="X112">
         <v>0.001936108422071703</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>517</v>
@@ -8973,21 +9312,24 @@
         <v>515.5</v>
       </c>
       <c r="T113">
+        <v>517</v>
+      </c>
+      <c r="U113">
         <v>1.15625</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>0.0002266839378237684</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>0.0003881234232487873</v>
       </c>
-      <c r="W113">
+      <c r="X113">
         <v>-0.0009661835748792091</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>518</v>
@@ -9044,21 +9386,24 @@
         <v>515.7333333333333</v>
       </c>
       <c r="T114">
+        <v>517.5</v>
+      </c>
+      <c r="U114">
         <v>1.21875</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>0.0003885129666203468</v>
       </c>
-      <c r="V114">
+      <c r="W114">
         <v>0.0004526349822180364</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>0.0019342359767891</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>518</v>
@@ -9115,21 +9460,24 @@
         <v>516.0333333333333</v>
       </c>
       <c r="T115">
+        <v>517.6666666666666</v>
+      </c>
+      <c r="U115">
         <v>1.25</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>0.0003559985760055451</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>0.0005816959669078248</v>
       </c>
-      <c r="W115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23">
+      <c r="X115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>518.5</v>
@@ -9186,21 +9534,24 @@
         <v>516.3666666666667</v>
       </c>
       <c r="T116">
+        <v>518.1666666666666</v>
+      </c>
+      <c r="U116">
         <v>1.25</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>0.000355871886121184</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>0.000645953103804775</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>0.0009652509652509078</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>518.5</v>
@@ -9257,21 +9608,24 @@
         <v>516.6333333333333</v>
       </c>
       <c r="T117">
+        <v>518.3333333333334</v>
+      </c>
+      <c r="U117">
         <v>1.0625</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>0.000323404805795402</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>0.0005164288941965633</v>
       </c>
-      <c r="W117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:23">
+      <c r="X117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>518</v>
@@ -9328,21 +9682,24 @@
         <v>516.9</v>
       </c>
       <c r="T118">
+        <v>518.3333333333334</v>
+      </c>
+      <c r="U118">
         <v>1.03125</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>0.0002909702240470047</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>0.0005161623330536269</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>-0.0009643201542912649</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>519</v>
@@ -9399,21 +9756,24 @@
         <v>517.1666666666666</v>
       </c>
       <c r="T119">
+        <v>518.5</v>
+      </c>
+      <c r="U119">
         <v>1.03125</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>0.0003232062055593676</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>0.0005158960469464624</v>
       </c>
-      <c r="W119">
+      <c r="X119">
         <v>0.001930501930502038</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>519</v>
@@ -9470,21 +9830,24 @@
         <v>517.4333333333333</v>
       </c>
       <c r="T120">
+        <v>518.6666666666666</v>
+      </c>
+      <c r="U120">
         <v>0.96875</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>0.0003231017770597422</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>0.0005156300354496324</v>
       </c>
-      <c r="W120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23">
+      <c r="X120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>517.5</v>
@@ -9541,21 +9904,24 @@
         <v>517.5666666666667</v>
       </c>
       <c r="T121">
+        <v>518.5</v>
+      </c>
+      <c r="U121">
         <v>0.875</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>0.0001614987080102992</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>0.0002576821490694048</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>-0.002890173410404651</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>517.5</v>
@@ -9612,21 +9978,24 @@
         <v>517.6666666666666</v>
       </c>
       <c r="T122">
+        <v>518</v>
+      </c>
+      <c r="U122">
         <v>0.6875</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>0.0001291781043111229</v>
       </c>
-      <c r="V122">
+      <c r="W122">
         <v>0.000193211824563555</v>
       </c>
-      <c r="W122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23">
+      <c r="X122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>517</v>
@@ -9683,21 +10052,24 @@
         <v>517.7333333333333</v>
       </c>
       <c r="T123">
+        <v>517.3333333333334</v>
+      </c>
+      <c r="U123">
         <v>0.5</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>9.687106461320205E-05</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>0.0001287830006440061</v>
       </c>
-      <c r="W123">
+      <c r="X123">
         <v>-0.0009661835748792091</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>516.5</v>
@@ -9754,21 +10126,24 @@
         <v>517.6666666666666</v>
       </c>
       <c r="T124">
+        <v>517</v>
+      </c>
+      <c r="U124">
         <v>0.21875</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>9.686168151867847E-05</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>-0.0001287664177183068</v>
       </c>
-      <c r="W124">
+      <c r="X124">
         <v>-0.0009671179883945502</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>517</v>
@@ -9825,21 +10200,24 @@
         <v>517.7</v>
       </c>
       <c r="T125">
+        <v>516.8333333333334</v>
+      </c>
+      <c r="U125">
         <v>0.0625</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>0.0001614205004036862</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>6.439150032222507E-05</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>0.0009680542110357404</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>517.5</v>
@@ -9896,21 +10274,24 @@
         <v>517.7666666666667</v>
       </c>
       <c r="T126">
+        <v>517</v>
+      </c>
+      <c r="U126">
         <v>-0.0625</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>0.0001936733376370903</v>
       </c>
-      <c r="V126">
+      <c r="W126">
         <v>0.0001287747086471391</v>
       </c>
-      <c r="W126">
+      <c r="X126">
         <v>0.0009671179883945502</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>517</v>
@@ -9967,21 +10348,24 @@
         <v>517.7333333333333</v>
       </c>
       <c r="T127">
+        <v>517.1666666666666</v>
+      </c>
+      <c r="U127">
         <v>-0.34375</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>0.0001613631962822382</v>
       </c>
-      <c r="V127">
+      <c r="W127">
         <v>-6.437906392831039E-05</v>
       </c>
-      <c r="W127">
+      <c r="X127">
         <v>-0.0009661835748792091</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>517</v>
@@ -10038,21 +10422,24 @@
         <v>517.7333333333333</v>
       </c>
       <c r="T128">
+        <v>517.1666666666666</v>
+      </c>
+      <c r="U128">
         <v>-0.5625</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>0.0001936045948824905</v>
       </c>
-      <c r="V128">
-        <v>0</v>
-      </c>
       <c r="W128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:23">
+      <c r="X128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>517.5</v>
@@ -10109,21 +10496,24 @@
         <v>517.7</v>
       </c>
       <c r="T129">
+        <v>517.1666666666666</v>
+      </c>
+      <c r="U129">
         <v>-0.59375</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>0.0001935671193986632</v>
       </c>
-      <c r="V129">
+      <c r="W129">
         <v>-6.438320885904236E-05</v>
       </c>
-      <c r="W129">
+      <c r="X129">
         <v>0.0009671179883945502</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>517.5</v>
@@ -10180,21 +10570,24 @@
         <v>517.6666666666666</v>
       </c>
       <c r="T130">
+        <v>517.3333333333334</v>
+      </c>
+      <c r="U130">
         <v>-0.5625</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>0.0002580395445601624</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>-6.438735432379161E-05</v>
       </c>
-      <c r="W130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:23">
+      <c r="X130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>517</v>
@@ -10251,21 +10644,24 @@
         <v>517.5666666666667</v>
       </c>
       <c r="T131">
+        <v>517.3333333333334</v>
+      </c>
+      <c r="U131">
         <v>-0.5</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>0.0002257263551643796</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>-0.000193174500965676</v>
       </c>
-      <c r="W131">
+      <c r="X131">
         <v>-0.0009661835748792091</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>516.5</v>
@@ -10322,21 +10718,24 @@
         <v>517.4333333333333</v>
       </c>
       <c r="T132">
+        <v>517</v>
+      </c>
+      <c r="U132">
         <v>-0.375</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>0.0001289573795859589</v>
       </c>
-      <c r="V132">
+      <c r="W132">
         <v>-0.0002576157660850731</v>
       </c>
-      <c r="W132">
+      <c r="X132">
         <v>-0.0009671179883945502</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>517</v>
@@ -10393,21 +10792,24 @@
         <v>517.3666666666667</v>
       </c>
       <c r="T133">
+        <v>516.8333333333334</v>
+      </c>
+      <c r="U133">
         <v>-0.28125</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>0.0001934111275869732</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>-0.0001288410745344803</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>0.0009680542110357404</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>517.5</v>
@@ -10464,21 +10866,24 @@
         <v>517.2666666666667</v>
       </c>
       <c r="T134">
+        <v>517</v>
+      </c>
+      <c r="U134">
         <v>-0.25</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>0.0001611447724636506</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>-0.0001932865150441332</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>0.0009671179883945502</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>517.5</v>
@@ -10535,21 +10940,24 @@
         <v>517.1666666666666</v>
       </c>
       <c r="T135">
+        <v>517.3333333333334</v>
+      </c>
+      <c r="U135">
         <v>-0.09375</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>0.0001611188090095972</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>-0.0001933238819435967</v>
       </c>
-      <c r="W135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:23">
+      <c r="X135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>517.5</v>
@@ -10606,21 +11014,24 @@
         <v>517.1666666666666</v>
       </c>
       <c r="T136">
+        <v>517.5</v>
+      </c>
+      <c r="U136">
         <v>0.0625</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>0.0001288742831369039</v>
       </c>
-      <c r="V136">
-        <v>0</v>
-      </c>
       <c r="W136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:23">
+      <c r="X136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>518</v>
@@ -10677,21 +11088,24 @@
         <v>517.2</v>
       </c>
       <c r="T137">
+        <v>517.6666666666666</v>
+      </c>
+      <c r="U137">
         <v>0.09375</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>0.0001288576766960148</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>6.445375443142609E-05</v>
       </c>
-      <c r="W137">
+      <c r="X137">
         <v>0.0009661835748793202</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>518</v>
@@ -10748,21 +11162,24 @@
         <v>517.2666666666667</v>
       </c>
       <c r="T138">
+        <v>517.8333333333334</v>
+      </c>
+      <c r="U138">
         <v>0.125</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>0.0001288410745345914</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>0.0001288992008248169</v>
       </c>
-      <c r="W138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:23">
+      <c r="X138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>518</v>
@@ -10819,21 +11236,24 @@
         <v>517.3666666666667</v>
       </c>
       <c r="T139">
+        <v>518</v>
+      </c>
+      <c r="U139">
         <v>0.1875</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>3.220611916265881E-05</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>0.0001933238819435967</v>
       </c>
-      <c r="W139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:23">
+      <c r="X139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>518.5</v>
@@ -10890,21 +11310,24 @@
         <v>517.4666666666667</v>
       </c>
       <c r="T140">
+        <v>518.1666666666666</v>
+      </c>
+      <c r="U140">
         <v>0.3125</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>0.0001288203278477784</v>
       </c>
-      <c r="V140">
+      <c r="W140">
         <v>0.0001932865150442442</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>0.0009652509652509078</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>519</v>
@@ -10961,21 +11384,24 @@
         <v>517.5666666666667</v>
       </c>
       <c r="T141">
+        <v>518.5</v>
+      </c>
+      <c r="U141">
         <v>0.4375</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>0.0001610046691351563</v>
       </c>
-      <c r="V141">
+      <c r="W141">
         <v>0.0001932491625871169</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>0.0009643201542912649</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>519</v>
@@ -11032,21 +11458,24 @@
         <v>517.7</v>
       </c>
       <c r="T142">
+        <v>518.8333333333334</v>
+      </c>
+      <c r="U142">
         <v>0.53125</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>9.658725048300454E-05</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>0.0002576157660849621</v>
       </c>
-      <c r="W142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:23">
+      <c r="X142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>519.5</v>
@@ -11103,21 +11532,24 @@
         <v>517.8666666666667</v>
       </c>
       <c r="T143">
+        <v>519.1666666666666</v>
+      </c>
+      <c r="U143">
         <v>0.625</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>0.0001609632038115372</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>0.0003219367716180699</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>0.0009633911368014392</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>519.5</v>
@@ -11174,21 +11606,24 @@
         <v>518</v>
       </c>
       <c r="T144">
+        <v>519.3333333333334</v>
+      </c>
+      <c r="U144">
         <v>0.71875</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>9.6562379297227E-05</v>
       </c>
-      <c r="V144">
+      <c r="W144">
         <v>0.0002574665293511025</v>
       </c>
-      <c r="W144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:23">
+      <c r="X144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>519.5</v>
@@ -11245,21 +11680,24 @@
         <v>518.1333333333333</v>
       </c>
       <c r="T145">
+        <v>519.5</v>
+      </c>
+      <c r="U145">
         <v>0.78125</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>9.655305590405838E-05</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>0.0002574002574002865</v>
       </c>
-      <c r="W145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:23">
+      <c r="X145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>519</v>
@@ -11316,21 +11754,24 @@
         <v>518.2666666666667</v>
       </c>
       <c r="T146">
+        <v>519.3333333333334</v>
+      </c>
+      <c r="U146">
         <v>0.8125</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>3.218124477055717E-05</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>0.0002573340195572982</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>-0.0009624639076034613</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>519</v>
@@ -11387,21 +11828,24 @@
         <v>518.4333333333333</v>
       </c>
       <c r="T147">
+        <v>519.1666666666666</v>
+      </c>
+      <c r="U147">
         <v>0.8125</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>3.218020917139519E-05</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>0.0003215847697453089</v>
       </c>
-      <c r="W147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23">
+      <c r="X147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>519.5</v>
@@ -11458,21 +11902,24 @@
         <v>518.6</v>
       </c>
       <c r="T148">
+        <v>519.1666666666666</v>
+      </c>
+      <c r="U148">
         <v>0.75</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>9.653752091653978E-05</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>0.0003214813862277843</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>0.0009633911368014392</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>519.5</v>
@@ -11529,21 +11976,24 @@
         <v>518.7333333333333</v>
       </c>
       <c r="T149">
+        <v>519.3333333333334</v>
+      </c>
+      <c r="U149">
         <v>0.65625</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>3.217606744110313E-05</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>0.0002571024553283952</v>
       </c>
-      <c r="W149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:23">
+      <c r="X149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>519</v>
@@ -11600,21 +12050,24 @@
         <v>518.8333333333334</v>
       </c>
       <c r="T150">
+        <v>519.3333333333334</v>
+      </c>
+      <c r="U150">
         <v>0.5625</v>
       </c>
-      <c r="U150">
-        <v>0</v>
-      </c>
       <c r="V150">
+        <v>0</v>
+      </c>
+      <c r="W150">
         <v>0.0001927772779848347</v>
       </c>
-      <c r="W150">
+      <c r="X150">
         <v>-0.0009624639076034613</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>519.5</v>
@@ -11671,21 +12124,24 @@
         <v>518.9666666666667</v>
       </c>
       <c r="T151">
+        <v>519.3333333333334</v>
+      </c>
+      <c r="U151">
         <v>0.4375</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>0.0001287001287002543</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>0.0002569868294248767</v>
       </c>
-      <c r="W151">
+      <c r="X151">
         <v>0.0009633911368014392</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>519</v>
@@ -11742,21 +12198,24 @@
         <v>519.0333333333333</v>
       </c>
       <c r="T152">
+        <v>519.1666666666666</v>
+      </c>
+      <c r="U152">
         <v>0.28125</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>9.651267533117291E-05</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>0.000128460402081032</v>
       </c>
-      <c r="W152">
+      <c r="X152">
         <v>-0.0009624639076034613</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>519</v>
@@ -11813,21 +12272,24 @@
         <v>519.1</v>
       </c>
       <c r="T153">
+        <v>519.1666666666666</v>
+      </c>
+      <c r="U153">
         <v>0.15625</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>0.0001286711487116232</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>0.0001284439021258521</v>
       </c>
-      <c r="W153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:23">
+      <c r="X153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>519</v>
@@ -11884,21 +12346,24 @@
         <v>519.1666666666666</v>
       </c>
       <c r="T154">
+        <v>519</v>
+      </c>
+      <c r="U154">
         <v>0.09375</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>0.000160818243221561</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>0.0001284274064083935</v>
       </c>
-      <c r="W154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:23">
+      <c r="X154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>518</v>
@@ -11955,21 +12420,24 @@
         <v>519.1333333333333</v>
       </c>
       <c r="T155">
+        <v>518.6666666666666</v>
+      </c>
+      <c r="U155">
         <v>-0.03125</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>6.431695394892856E-05</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>-6.420545746377293E-05</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>-0.0019267822736031</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>518.5</v>
@@ -12026,21 +12494,24 @@
         <v>519.1</v>
       </c>
       <c r="T156">
+        <v>518.5</v>
+      </c>
+      <c r="U156">
         <v>-0.15625</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>6.431281754459839E-05</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>-6.420958006925215E-05</v>
       </c>
-      <c r="W156">
+      <c r="X156">
         <v>0.0009652509652509078</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>518.5</v>
@@ -12097,21 +12568,24 @@
         <v>519.0666666666667</v>
       </c>
       <c r="T157">
+        <v>518.3333333333334</v>
+      </c>
+      <c r="U157">
         <v>-0.25</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>9.646302250798655E-05</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>-6.421370320419673E-05</v>
       </c>
-      <c r="W157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:23">
+      <c r="X157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>518</v>
@@ -12168,21 +12642,24 @@
         <v>518.9666666666667</v>
       </c>
       <c r="T158">
+        <v>518.3333333333334</v>
+      </c>
+      <c r="U158">
         <v>-0.3125</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>6.430247886046736E-05</v>
       </c>
-      <c r="V158">
+      <c r="W158">
         <v>-0.0001926534806062641</v>
       </c>
-      <c r="W158">
+      <c r="X158">
         <v>-0.0009643201542912649</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>517</v>
@@ -12239,21 +12716,24 @@
         <v>518.8</v>
       </c>
       <c r="T159">
+        <v>517.8333333333334</v>
+      </c>
+      <c r="U159">
         <v>-0.46875</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>-3.214917215876856E-05</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>-0.0003211510052028022</v>
       </c>
-      <c r="W159">
+      <c r="X159">
         <v>-0.001930501930501927</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>517</v>
@@ -12310,21 +12790,24 @@
         <v>518.6333333333333</v>
       </c>
       <c r="T160">
+        <v>517.3333333333334</v>
+      </c>
+      <c r="U160">
         <v>-0.5625</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>-3.215020576130545E-05</v>
       </c>
-      <c r="V160">
+      <c r="W160">
         <v>-0.000321254176304242</v>
       </c>
-      <c r="W160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:23">
+      <c r="X160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>517.5</v>
@@ -12381,21 +12864,24 @@
         <v>518.5333333333333</v>
       </c>
       <c r="T161">
+        <v>517.1666666666666</v>
+      </c>
+      <c r="U161">
         <v>-0.625</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>3.21512394303447E-05</v>
       </c>
-      <c r="V161">
+      <c r="W161">
         <v>-0.0001928144482293837</v>
       </c>
-      <c r="W161">
+      <c r="X161">
         <v>0.0009671179883945502</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>517.5</v>
@@ -12452,21 +12938,24 @@
         <v>518.4333333333333</v>
       </c>
       <c r="T162">
+        <v>517.3333333333334</v>
+      </c>
+      <c r="U162">
         <v>-0.71875</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>6.43004115226109E-05</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>-0.0001928516328105756</v>
       </c>
-      <c r="W162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:23">
+      <c r="X162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>518</v>
@@ -12523,21 +13012,24 @@
         <v>518.3333333333334</v>
       </c>
       <c r="T163">
+        <v>517.6666666666666</v>
+      </c>
+      <c r="U163">
         <v>-0.65625</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>6.429627724569009E-05</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>-0.0001928888317365152</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>0.0009661835748793202</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>519</v>
@@ -12594,21 +13086,24 @@
         <v>518.3</v>
       </c>
       <c r="T164">
+        <v>518.1666666666666</v>
+      </c>
+      <c r="U164">
         <v>-0.5625</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>9.643821524996099E-05</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>-6.430868167217607E-05</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>0.001930501930502038</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>518.5</v>
@@ -12665,21 +13160,24 @@
         <v>518.2666666666667</v>
       </c>
       <c r="T165">
+        <v>518.5</v>
+      </c>
+      <c r="U165">
         <v>-0.5</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>6.428594387841713E-05</v>
       </c>
-      <c r="V165">
+      <c r="W165">
         <v>-6.431281754448737E-05</v>
       </c>
-      <c r="W165">
+      <c r="X165">
         <v>-0.0009633911368015502</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>518.5</v>
@@ -12736,21 +13234,24 @@
         <v>518.2</v>
       </c>
       <c r="T166">
+        <v>518.6666666666666</v>
+      </c>
+      <c r="U166">
         <v>-0.40625</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>6.428181146156398E-05</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>-0.0001286339078979681</v>
       </c>
-      <c r="W166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:23">
+      <c r="X166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>518</v>
@@ -12807,21 +13308,24 @@
         <v>518.1333333333333</v>
       </c>
       <c r="T167">
+        <v>518.3333333333334</v>
+      </c>
+      <c r="U167">
         <v>-0.1875</v>
       </c>
-      <c r="U167">
-        <v>0</v>
-      </c>
       <c r="V167">
+        <v>0</v>
+      </c>
+      <c r="W167">
         <v>-0.0001286504567091784</v>
       </c>
-      <c r="W167">
+      <c r="X167">
         <v>-0.0009643201542912649</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>518</v>
@@ -12878,21 +13382,24 @@
         <v>518.0666666666667</v>
       </c>
       <c r="T168">
-        <v>0</v>
+        <v>518.1666666666666</v>
       </c>
       <c r="U168">
         <v>0</v>
       </c>
       <c r="V168">
+        <v>0</v>
+      </c>
+      <c r="W168">
         <v>-0.0001286670097785381</v>
       </c>
-      <c r="W168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:23">
+      <c r="X168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>518</v>
@@ -12949,21 +13456,24 @@
         <v>518</v>
       </c>
       <c r="T169">
+        <v>518</v>
+      </c>
+      <c r="U169">
         <v>0.125</v>
       </c>
-      <c r="U169">
-        <v>0</v>
-      </c>
       <c r="V169">
+        <v>0</v>
+      </c>
+      <c r="W169">
         <v>-0.0001286835671086006</v>
       </c>
-      <c r="W169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:23">
+      <c r="X169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>519</v>
@@ -13020,21 +13530,24 @@
         <v>518.0666666666667</v>
       </c>
       <c r="T170">
+        <v>518.3333333333334</v>
+      </c>
+      <c r="U170">
         <v>0.3125</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>3.213883978792076E-05</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>0.0001287001287002543</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>0.001930501930502038</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>518</v>
@@ -13091,21 +13604,24 @@
         <v>518.0333333333333</v>
       </c>
       <c r="T171">
+        <v>518.3333333333334</v>
+      </c>
+      <c r="U171">
         <v>0.3125</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>-6.427561383204328E-05</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>-6.434178355441134E-05</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>-0.0019267822736031</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>518.5</v>
@@ -13162,21 +13678,24 @@
         <v>518.0333333333333</v>
       </c>
       <c r="T172">
+        <v>518.5</v>
+      </c>
+      <c r="U172">
         <v>0.25</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>-3.213987272632224E-05</v>
       </c>
-      <c r="V172">
-        <v>0</v>
-      </c>
       <c r="W172">
+        <v>0</v>
+      </c>
+      <c r="X172">
         <v>0.0009652509652509078</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>514</v>
@@ -13233,15 +13752,18 @@
         <v>517.7666666666667</v>
       </c>
       <c r="T173">
+        <v>516.8333333333334</v>
+      </c>
+      <c r="U173">
         <v>-0.03125</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>-0.0003535499630378247</v>
       </c>
-      <c r="V173">
+      <c r="W173">
         <v>-0.0005147673894858595</v>
       </c>
-      <c r="W173">
+      <c r="X173">
         <v>-0.008678881388621051</v>
       </c>
     </row>
